--- a/AAII_Financials/Quarterly/ORGS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORGS_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>ORGS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,230 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43434</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43343</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43251</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43159</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43069</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42978</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42886</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42794</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42704</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E8" s="3">
         <v>9100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G8" s="3">
         <v>7800</v>
       </c>
-      <c r="F8" s="3">
-        <v>7300</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>400</v>
+      </c>
+      <c r="I8" s="3">
         <v>5800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>6200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>4000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2600</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3400</v>
       </c>
       <c r="L8" s="3">
         <v>2600</v>
       </c>
       <c r="M8" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O8" s="3">
         <v>2300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F9" s="3">
         <v>6400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>4900</v>
       </c>
-      <c r="F9" s="3">
-        <v>4300</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I9" s="3">
         <v>3500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>3400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F10" s="3">
         <v>2700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2900</v>
       </c>
-      <c r="F10" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I10" s="3">
         <v>2300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>700</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>-1900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-500</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -880,52 +905,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F12" s="3">
         <v>1300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>2400</v>
       </c>
-      <c r="F12" s="3">
-        <v>5900</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I12" s="3">
         <v>3900</v>
       </c>
-      <c r="H12" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K12" s="3">
         <v>1400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -968,8 +1001,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -982,14 +1021,14 @@
       <c r="F14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="3">
-        <v>700</v>
+      <c r="G14" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>35</v>
+      <c r="I14" s="3">
+        <v>700</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>35</v>
@@ -1003,40 +1042,46 @@
       <c r="M14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E15" s="3">
         <v>700</v>
       </c>
       <c r="F15" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G15" s="3">
         <v>700</v>
       </c>
       <c r="H15" s="3">
+        <v>200</v>
+      </c>
+      <c r="I15" s="3">
+        <v>700</v>
+      </c>
+      <c r="J15" s="3">
         <v>600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>400</v>
-      </c>
-      <c r="J15" s="3">
-        <v>400</v>
       </c>
       <c r="K15" s="3">
         <v>400</v>
@@ -1056,8 +1101,14 @@
       <c r="P15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>400</v>
+      </c>
+      <c r="R15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1122,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F17" s="3">
         <v>13500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>13000</v>
       </c>
-      <c r="F17" s="3">
-        <v>15600</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>8700</v>
+      </c>
+      <c r="I17" s="3">
         <v>13800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>6900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>6800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>4900</v>
-      </c>
-      <c r="N17" s="3">
-        <v>5400</v>
       </c>
       <c r="O17" s="3">
         <v>4900</v>
       </c>
       <c r="P17" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>4900</v>
+      </c>
+      <c r="R17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-5200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-8300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-8000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-3500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1177,228 +1242,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-4300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-7400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-6400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-4600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-3700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>500</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2500</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
       </c>
       <c r="L22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M22" s="3">
+        <v>200</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-5300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-8400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-7200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-5900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-5600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-5000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-300</v>
-      </c>
       <c r="H24" s="3">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>-300</v>
       </c>
       <c r="J24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-1800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1441,96 +1538,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-5800</v>
       </c>
-      <c r="F26" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-6900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-6100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-4800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-5200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-8300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-5000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-5100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-5600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-6100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-4800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1573,31 +1688,37 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>82500</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1617,8 +1738,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1661,8 +1788,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1705,96 +1838,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>1700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>75600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-5200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-8300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-5000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-5100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-5600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-6100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-4800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1837,101 +1988,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>75600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-5200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-8300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-5000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-5100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-5600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-6100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-4800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43434</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43343</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43251</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43159</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43069</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42978</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42886</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42794</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42704</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1948,8 +2117,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1966,52 +2137,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>107100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F41" s="3">
         <v>10100</v>
-      </c>
-      <c r="E41" s="3">
-        <v>16100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>14400</v>
       </c>
       <c r="G41" s="3">
         <v>16100</v>
       </c>
       <c r="H41" s="3">
+        <v>14400</v>
+      </c>
+      <c r="I41" s="3">
+        <v>16100</v>
+      </c>
+      <c r="J41" s="3">
         <v>16700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2036,334 +2215,382 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>35</v>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N42" s="3">
-        <v>100</v>
+      <c r="N42" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="P42" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q42" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F43" s="3">
         <v>7300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>7100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>6200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>11200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>4400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>3400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F44" s="3">
         <v>1900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>2200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>2000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F45" s="3">
         <v>1600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>4600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>112900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F46" s="3">
         <v>20800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>27100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>23900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>30300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>24700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>13700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>8600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>7300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>5700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F47" s="3">
         <v>2100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>2100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>2000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1000</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>1100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>300</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>34000</v>
+      </c>
+      <c r="F48" s="3">
         <v>27300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>24300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>27100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>11900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>11100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>7500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>4800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>4600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>4600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>29100</v>
+      </c>
+      <c r="F49" s="3">
         <v>28700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>30500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>30800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>31900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>33200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>24600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>26100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>25700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>26200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>25000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>24200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>24600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2633,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,40 +2683,46 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
         <v>700</v>
       </c>
       <c r="F52" s="3">
+        <v>700</v>
+      </c>
+      <c r="G52" s="3">
+        <v>700</v>
+      </c>
+      <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>400</v>
-      </c>
-      <c r="H52" s="3">
-        <v>400</v>
-      </c>
-      <c r="I52" s="3">
-        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>400</v>
       </c>
       <c r="K52" s="3">
+        <v>100</v>
+      </c>
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3">
-        <v>100</v>
-      </c>
       <c r="M52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
@@ -2494,8 +2733,14 @@
       <c r="P52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+      <c r="R52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,52 +2783,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>127200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>92500</v>
+      </c>
+      <c r="F54" s="3">
         <v>79600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>84600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>84800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>75400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>69300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>47000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>42400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>39900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>37400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>36300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>36300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>33500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2857,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,272 +2877,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F57" s="3">
         <v>7700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>6800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>4600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>5500</v>
-      </c>
-      <c r="O58" s="3">
-        <v>5500</v>
       </c>
       <c r="P58" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="R58" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>18800</v>
+      </c>
+      <c r="F59" s="3">
         <v>15400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>15000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>15000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>12300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>11000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>9700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>10400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>9800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>10700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>10000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>8600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>31600</v>
+      </c>
+      <c r="F60" s="3">
         <v>24400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>23100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>21800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>17100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>15000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>13000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>16200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>16900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>17600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>16100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>18100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>14500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F61" s="3">
         <v>10300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>10300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>3400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>5100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>5000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>4400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F62" s="3">
         <v>9700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>10100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>14000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>5200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>7400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>4000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3223,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2970,8 +3273,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,52 +3323,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>87000</v>
+      </c>
+      <c r="F66" s="3">
         <v>69100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>68400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>64000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>47100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>39700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>21200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>22900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>25700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>26200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>26400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>30600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>21000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3397,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3443,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3493,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3543,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,52 +3593,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-89400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-83200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-78700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-73500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-62400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-57400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-52300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-49700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-44100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-41300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-39400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-38800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-31800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3693,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3743,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,52 +3793,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>89500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F76" s="3">
         <v>10500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>16100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>20800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>28400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>29600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>25800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>19500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>14100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>11300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>9900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>5700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>12500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3893,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43434</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43343</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43251</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43159</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43069</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42978</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42886</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42794</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42704</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>75600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-5200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-8300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-5000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-5100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-5600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-6100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-4800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,13 +4022,15 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>1000</v>
@@ -3642,37 +4039,43 @@
         <v>900</v>
       </c>
       <c r="G83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>900</v>
+      </c>
+      <c r="I83" s="3">
         <v>800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>600</v>
-      </c>
-      <c r="I83" s="3">
-        <v>600</v>
       </c>
       <c r="J83" s="3">
         <v>600</v>
       </c>
       <c r="K83" s="3">
+        <v>600</v>
+      </c>
+      <c r="L83" s="3">
+        <v>600</v>
+      </c>
+      <c r="M83" s="3">
         <v>700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +4118,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +4168,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4218,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4268,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4318,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-3700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-4500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-5600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-4800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,52 +4392,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4488,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4538,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-2400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-2100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-400</v>
       </c>
       <c r="O94" s="3">
         <v>-500</v>
       </c>
       <c r="P94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4612,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4658,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4708,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4758,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,136 +4808,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>7200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>6600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>4500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>19400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>7600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>3500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>4000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>2000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>3000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>95600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-5900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>12300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-3200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>3000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORGS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORGS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,137 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43159</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42704</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1900</v>
-      </c>
-      <c r="E8" s="3">
-        <v>9100</v>
       </c>
       <c r="F8" s="3">
         <v>9100</v>
       </c>
       <c r="G8" s="3">
-        <v>7800</v>
+        <v>9100</v>
       </c>
       <c r="H8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2300</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1900</v>
       </c>
       <c r="Q8" s="3">
         <v>1900</v>
       </c>
       <c r="R8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S8" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -796,99 +803,105 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
         <v>2600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6400</v>
       </c>
-      <c r="G9" s="3">
-        <v>4900</v>
-      </c>
       <c r="H9" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I9" s="3">
         <v>4600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1600</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1900</v>
       </c>
       <c r="N9" s="3">
         <v>1900</v>
       </c>
       <c r="O9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P9" s="3">
         <v>2300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="3">
         <v>1700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2700</v>
       </c>
-      <c r="G10" s="3">
-        <v>2900</v>
-      </c>
       <c r="H10" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="I10" s="3">
         <v>-4200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>700</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-500</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -907,58 +920,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E12" s="3">
         <v>4900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K12" s="3">
         <v>2400</v>
       </c>
-      <c r="H12" s="3">
-        <v>5800</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3900</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2400</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1007,8 +1024,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,11 +1047,11 @@
       <c r="H14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="3">
         <v>700</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>35</v>
@@ -1048,8 +1068,8 @@
       <c r="O14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1057,34 +1077,37 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15" s="3">
         <v>400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>700</v>
       </c>
       <c r="H15" s="3">
         <v>200</v>
       </c>
       <c r="I15" s="3">
+        <v>200</v>
+      </c>
+      <c r="J15" s="3">
         <v>700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>600</v>
-      </c>
-      <c r="K15" s="3">
-        <v>400</v>
       </c>
       <c r="L15" s="3">
         <v>400</v>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E17" s="3">
         <v>8600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13500</v>
       </c>
-      <c r="G17" s="3">
-        <v>13000</v>
-      </c>
       <c r="H17" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I17" s="3">
         <v>8700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4400</v>
       </c>
-      <c r="G18" s="3">
-        <v>-5200</v>
-      </c>
       <c r="H18" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="I18" s="3">
         <v>-8300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,208 +1277,221 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
+        <v>800</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L20" s="3">
+        <v>200</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>800</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>-1700</v>
       </c>
       <c r="R20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3800</v>
       </c>
-      <c r="G21" s="3">
-        <v>-4300</v>
-      </c>
       <c r="H21" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I21" s="3">
         <v>-7400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>300</v>
       </c>
       <c r="O22" s="3">
         <v>300</v>
       </c>
       <c r="P22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q22" s="3">
         <v>400</v>
       </c>
       <c r="R22" s="3">
+        <v>400</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4800</v>
       </c>
-      <c r="G23" s="3">
-        <v>-5300</v>
-      </c>
       <c r="H23" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="I23" s="3">
         <v>-8400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1453,49 +1499,52 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="O24" s="3">
+        <v>400</v>
+      </c>
+      <c r="P24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2400</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="R24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S24" s="3">
         <v>-400</v>
       </c>
-      <c r="M24" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="N24" s="3">
-        <v>400</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P24" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R24" s="3">
-        <v>-400</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4900</v>
       </c>
-      <c r="G26" s="3">
-        <v>-5800</v>
-      </c>
       <c r="H26" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="I26" s="3">
         <v>-8300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4500</v>
       </c>
-      <c r="G27" s="3">
-        <v>-5200</v>
-      </c>
       <c r="H27" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="I27" s="3">
         <v>-8300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1694,16 +1752,19 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E29" s="3">
         <v>82500</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>35</v>
@@ -1712,16 +1773,16 @@
         <v>35</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>35</v>
+        <v>-300</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1844,108 +1911,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>100</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>1700</v>
       </c>
       <c r="R32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E33" s="3">
         <v>75600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1994,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E35" s="3">
         <v>75600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43159</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42704</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2139,58 +2225,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>97500</v>
+      </c>
+      <c r="E41" s="3">
         <v>107100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2221,8 +2311,8 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>35</v>
+      <c r="M42" s="3">
+        <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>35</v>
@@ -2230,217 +2320,232 @@
       <c r="O42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q42" s="3">
         <v>100</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E43" s="3">
         <v>3100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
         <v>100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2000</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1700</v>
       </c>
       <c r="J44" s="3">
         <v>1700</v>
       </c>
       <c r="K44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L44" s="3">
         <v>1200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>600</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>400</v>
       </c>
       <c r="R44" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E45" s="3">
         <v>2700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1600</v>
       </c>
       <c r="G45" s="3">
         <v>1600</v>
       </c>
       <c r="H45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>104300</v>
+      </c>
+      <c r="E46" s="3">
         <v>112900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>26000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>20800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>27100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>23900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>30300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>24700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2448,99 +2553,105 @@
         <v>3200</v>
       </c>
       <c r="E47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F47" s="3">
         <v>2600</v>
-      </c>
-      <c r="F47" s="3">
-        <v>2100</v>
       </c>
       <c r="G47" s="3">
         <v>2100</v>
       </c>
       <c r="H47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I47" s="3">
         <v>2000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1000</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>1100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>300</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="Q47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3" t="s">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E48" s="3">
         <v>3100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>34000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>27300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>24300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>27100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4800</v>
-      </c>
-      <c r="P48" s="3">
-        <v>4600</v>
       </c>
       <c r="Q48" s="3">
         <v>4600</v>
       </c>
       <c r="R48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="S48" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2548,49 +2659,52 @@
         <v>7700</v>
       </c>
       <c r="E49" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F49" s="3">
         <v>29100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>28700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>30500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>30800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>31900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>33200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>24600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>26100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>25700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>26200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>25000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>24200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>24600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,16 +2806,19 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
-      </c>
-      <c r="E52" s="3">
-        <v>700</v>
       </c>
       <c r="F52" s="3">
         <v>700</v>
@@ -2707,25 +2827,25 @@
         <v>700</v>
       </c>
       <c r="H52" s="3">
+        <v>700</v>
+      </c>
+      <c r="I52" s="3">
         <v>800</v>
-      </c>
-      <c r="I52" s="3">
-        <v>400</v>
       </c>
       <c r="J52" s="3">
         <v>400</v>
       </c>
       <c r="K52" s="3">
+        <v>400</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
-      </c>
-      <c r="L52" s="3">
-        <v>400</v>
       </c>
       <c r="M52" s="3">
         <v>400</v>
       </c>
       <c r="N52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="O52" s="3">
         <v>100</v>
@@ -2739,8 +2859,11 @@
       <c r="R52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,58 +2912,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>119200</v>
+      </c>
+      <c r="E54" s="3">
         <v>127200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>92500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>79600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>84600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>84800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>75400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>69300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>47000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>42400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>39900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>37400</v>
-      </c>
-      <c r="O54" s="3">
-        <v>36300</v>
       </c>
       <c r="P54" s="3">
         <v>36300</v>
       </c>
       <c r="Q54" s="3">
+        <v>36300</v>
+      </c>
+      <c r="R54" s="3">
         <v>33500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,58 +3009,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2938,40 +3072,40 @@
         <v>400</v>
       </c>
       <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>1500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1300</v>
       </c>
       <c r="G58" s="3">
         <v>1300</v>
       </c>
       <c r="H58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I58" s="3">
         <v>1200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1000</v>
       </c>
       <c r="J58" s="3">
         <v>1000</v>
       </c>
       <c r="K58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>3200</v>
       </c>
       <c r="N58" s="3">
         <v>3200</v>
       </c>
       <c r="O58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P58" s="3">
         <v>2600</v>
-      </c>
-      <c r="P58" s="3">
-        <v>5500</v>
       </c>
       <c r="Q58" s="3">
         <v>5500</v>
@@ -2979,208 +3113,223 @@
       <c r="R58" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E59" s="3">
         <v>24100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>15000</v>
       </c>
       <c r="H59" s="3">
         <v>15000</v>
       </c>
       <c r="I59" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J59" s="3">
         <v>12300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E60" s="3">
         <v>25900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>31600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>24400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>23100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>21800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>17100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E61" s="3">
         <v>10900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>14100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>10300</v>
       </c>
       <c r="G61" s="3">
         <v>10300</v>
       </c>
       <c r="H61" s="3">
+        <v>10300</v>
+      </c>
+      <c r="I61" s="3">
         <v>3400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>700</v>
+      </c>
+      <c r="E62" s="3">
         <v>800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,58 +3484,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E66" s="3">
         <v>37700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>87000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>69100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>68400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>64000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>47100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>39700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>25700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>26200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>26400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>30600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,58 +3770,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-89400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-83200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-78700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-73500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-62400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-57400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-52300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-49700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-44100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-41300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-39400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-38800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-31800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,58 +3982,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>88200</v>
+      </c>
+      <c r="E76" s="3">
         <v>89500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>28400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>29600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43159</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42704</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E81" s="3">
         <v>75600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,31 +4222,32 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>600</v>
       </c>
       <c r="K83" s="3">
         <v>600</v>
@@ -4057,25 +4256,28 @@
         <v>600</v>
       </c>
       <c r="M83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N83" s="3">
         <v>700</v>
       </c>
       <c r="O83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P83" s="3">
         <v>600</v>
       </c>
       <c r="Q83" s="3">
+        <v>600</v>
+      </c>
+      <c r="R83" s="3">
         <v>900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,58 +4614,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-200</v>
       </c>
       <c r="O91" s="3">
         <v>-200</v>
       </c>
       <c r="P91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,58 +4771,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>103000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-500</v>
       </c>
       <c r="O94" s="3">
         <v>-500</v>
       </c>
       <c r="P94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,154 +5057,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>6400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>10400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>7200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>19400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E102" s="3">
         <v>95600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>12300</v>
-      </c>
-      <c r="K102" s="3">
-        <v>700</v>
       </c>
       <c r="L102" s="3">
         <v>700</v>
       </c>
       <c r="M102" s="3">
+        <v>700</v>
+      </c>
+      <c r="N102" s="3">
         <v>2800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORGS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORGS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>ORGS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,88 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43159</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42794</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42704</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -750,158 +754,167 @@
         <v>1700</v>
       </c>
       <c r="E8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F8" s="3">
         <v>1900</v>
-      </c>
-      <c r="F8" s="3">
-        <v>9100</v>
       </c>
       <c r="G8" s="3">
         <v>9100</v>
       </c>
       <c r="H8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I8" s="3">
         <v>1100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2300</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1900</v>
       </c>
       <c r="R8" s="3">
         <v>1900</v>
       </c>
       <c r="S8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T8" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>200</v>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
       </c>
       <c r="F9" s="3">
+        <v>200</v>
+      </c>
+      <c r="G9" s="3">
         <v>2600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1600</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1900</v>
       </c>
       <c r="O9" s="3">
         <v>1900</v>
       </c>
       <c r="P9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q9" s="3">
         <v>2300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3">
         <v>1500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6500</v>
       </c>
-      <c r="G10" s="3">
-        <v>2700</v>
-      </c>
       <c r="H10" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="I10" s="3">
         <v>-4800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-4200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>-1900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-500</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,61 +934,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E12" s="3">
         <v>24800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5600</v>
       </c>
-      <c r="G12" s="3">
-        <v>1300</v>
-      </c>
       <c r="H12" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I12" s="3">
         <v>2600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1027,8 +1044,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1050,11 +1070,11 @@
       <c r="I14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="3">
         <v>700</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>35</v>
@@ -1071,8 +1091,8 @@
       <c r="P14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1080,37 +1100,40 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>300</v>
+      </c>
+      <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>700</v>
       </c>
-      <c r="G15" s="3">
-        <v>800</v>
-      </c>
       <c r="H15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I15" s="3">
         <v>200</v>
       </c>
       <c r="J15" s="3">
+        <v>200</v>
+      </c>
+      <c r="K15" s="3">
         <v>700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>600</v>
-      </c>
-      <c r="L15" s="3">
-        <v>400</v>
       </c>
       <c r="M15" s="3">
         <v>400</v>
@@ -1133,8 +1156,11 @@
       <c r="S15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E17" s="3">
         <v>28500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15700</v>
       </c>
-      <c r="G17" s="3">
-        <v>13500</v>
-      </c>
       <c r="H17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I17" s="3">
         <v>6000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-26800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6600</v>
       </c>
-      <c r="G18" s="3">
-        <v>-4400</v>
-      </c>
       <c r="H18" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="I18" s="3">
         <v>-4900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1278,8 +1311,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1287,211 +1321,223 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>-300</v>
-      </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>-1700</v>
       </c>
       <c r="S20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-26500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5500</v>
       </c>
-      <c r="G21" s="3">
-        <v>-3800</v>
-      </c>
       <c r="H21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-3900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>300</v>
       </c>
       <c r="P22" s="3">
         <v>300</v>
       </c>
       <c r="Q22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R22" s="3">
         <v>400</v>
       </c>
       <c r="S22" s="3">
+        <v>400</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-27100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6900</v>
       </c>
-      <c r="G23" s="3">
-        <v>-4800</v>
-      </c>
       <c r="H23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-4900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1502,11 +1548,11 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>100</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1514,37 +1560,40 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1596,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-27100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-4900</v>
       </c>
-      <c r="H26" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-27100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6100</v>
       </c>
-      <c r="G27" s="3">
-        <v>-4500</v>
-      </c>
       <c r="H27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-4900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1755,37 +1813,40 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E29" s="3">
         <v>6700</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>82500</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H29" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I29" s="3">
         <v>-300</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>35</v>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1914,8 +1981,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1923,105 +1993,111 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>300</v>
-      </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>1700</v>
       </c>
       <c r="S32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-20400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>75600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2073,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-20400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>75600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43159</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42794</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42704</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2226,61 +2312,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E41" s="3">
         <v>97500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>107100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2314,8 +2404,8 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>35</v>
+      <c r="N42" s="3">
+        <v>0</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>35</v>
@@ -2323,70 +2413,76 @@
       <c r="P42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R42" s="3">
         <v>100</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E43" s="3">
         <v>4200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2394,317 +2490,335 @@
         <v>200</v>
       </c>
       <c r="E44" s="3">
+        <v>200</v>
+      </c>
+      <c r="F44" s="3">
         <v>100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1700</v>
       </c>
       <c r="K44" s="3">
         <v>1700</v>
       </c>
       <c r="L44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M44" s="3">
         <v>1200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>600</v>
-      </c>
-      <c r="R44" s="3">
-        <v>400</v>
       </c>
       <c r="S44" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>2500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1900</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1600</v>
       </c>
       <c r="H45" s="3">
         <v>1600</v>
       </c>
       <c r="I45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E46" s="3">
         <v>104300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>112900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>26000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>20800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>27100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>23900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>30300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E47" s="3">
         <v>3200</v>
       </c>
       <c r="F47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G47" s="3">
         <v>2600</v>
-      </c>
-      <c r="G47" s="3">
-        <v>2100</v>
       </c>
       <c r="H47" s="3">
         <v>2100</v>
       </c>
       <c r="I47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J47" s="3">
         <v>2000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1000</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>1100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>300</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="R47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3" t="s">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>34000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>27300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>24300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>27100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4800</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>4600</v>
       </c>
       <c r="R48" s="3">
         <v>4600</v>
       </c>
       <c r="S48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="T48" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="E49" s="3">
         <v>7700</v>
       </c>
       <c r="F49" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G49" s="3">
         <v>29100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>28700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>30500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>30800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>31900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>33200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>24600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>26100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>25700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>26200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>25000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>24200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>24600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,19 +2926,22 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>400</v>
-      </c>
-      <c r="F52" s="3">
-        <v>700</v>
       </c>
       <c r="G52" s="3">
         <v>700</v>
@@ -2830,25 +2950,25 @@
         <v>700</v>
       </c>
       <c r="I52" s="3">
+        <v>700</v>
+      </c>
+      <c r="J52" s="3">
         <v>800</v>
-      </c>
-      <c r="J52" s="3">
-        <v>400</v>
       </c>
       <c r="K52" s="3">
         <v>400</v>
       </c>
       <c r="L52" s="3">
+        <v>400</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>400</v>
       </c>
       <c r="N52" s="3">
         <v>400</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
@@ -2862,8 +2982,11 @@
       <c r="S52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,61 +3038,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>110800</v>
+      </c>
+      <c r="E54" s="3">
         <v>119200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>127200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>92500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>79600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>84600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>84800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>75400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>69300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>47000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>42400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>39900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>37400</v>
-      </c>
-      <c r="P54" s="3">
-        <v>36300</v>
       </c>
       <c r="Q54" s="3">
         <v>36300</v>
       </c>
       <c r="R54" s="3">
+        <v>36300</v>
+      </c>
+      <c r="S54" s="3">
         <v>33500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,61 +3140,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3075,40 +3209,40 @@
         <v>400</v>
       </c>
       <c r="F58" s="3">
+        <v>400</v>
+      </c>
+      <c r="G58" s="3">
         <v>1500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1300</v>
       </c>
       <c r="H58" s="3">
         <v>1300</v>
       </c>
       <c r="I58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J58" s="3">
         <v>1200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1000</v>
       </c>
       <c r="K58" s="3">
         <v>1000</v>
       </c>
       <c r="L58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>3200</v>
       </c>
       <c r="O58" s="3">
         <v>3200</v>
       </c>
       <c r="P58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Q58" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>5500</v>
       </c>
       <c r="R58" s="3">
         <v>5500</v>
@@ -3116,220 +3250,235 @@
       <c r="S58" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E59" s="3">
         <v>17700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>24100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>15000</v>
       </c>
       <c r="I59" s="3">
         <v>15000</v>
       </c>
       <c r="J59" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K59" s="3">
         <v>12300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E60" s="3">
         <v>19800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>25900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>31600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>24400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>23100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>21800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>17100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E61" s="3">
         <v>10300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>14100</v>
-      </c>
-      <c r="G61" s="3">
-        <v>10300</v>
       </c>
       <c r="H61" s="3">
         <v>10300</v>
       </c>
       <c r="I61" s="3">
+        <v>10300</v>
+      </c>
+      <c r="J61" s="3">
         <v>3400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,61 +3642,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E66" s="3">
         <v>31000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>37700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>87000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>69100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>68400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>64000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>47100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>39700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>25700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>26200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>26400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>30600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,61 +3944,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-34300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-89400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-83200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-78700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-73500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-62400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-57400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-52300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-49700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-44100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-41300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-39400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-38800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-31800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,61 +4168,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>86700</v>
+      </c>
+      <c r="E76" s="3">
         <v>88200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>89500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>28400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>25800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43159</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42794</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42704</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-20400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>75600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,34 +4421,35 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>800</v>
-      </c>
-      <c r="K83" s="3">
-        <v>600</v>
       </c>
       <c r="L83" s="3">
         <v>600</v>
@@ -4259,25 +4458,28 @@
         <v>600</v>
       </c>
       <c r="N83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O83" s="3">
         <v>700</v>
       </c>
       <c r="P83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q83" s="3">
         <v>600</v>
       </c>
       <c r="R83" s="3">
+        <v>600</v>
+      </c>
+      <c r="S83" s="3">
         <v>900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,8 +4835,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4624,52 +4845,55 @@
         <v>-300</v>
       </c>
       <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-200</v>
       </c>
       <c r="P91" s="3">
         <v>-200</v>
       </c>
       <c r="Q91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>103000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-500</v>
       </c>
       <c r="P94" s="3">
         <v>-500</v>
       </c>
       <c r="Q94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,61 +5303,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>10400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>7200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>19400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5122,101 +5371,107 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>95600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12300</v>
-      </c>
-      <c r="L102" s="3">
-        <v>700</v>
       </c>
       <c r="M102" s="3">
         <v>700</v>
       </c>
       <c r="N102" s="3">
+        <v>700</v>
+      </c>
+      <c r="O102" s="3">
         <v>2800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORGS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORGS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>ORGS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,256 +665,268 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43159</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43069</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42886</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42794</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42704</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="E8" s="3">
         <v>1700</v>
       </c>
       <c r="F8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G8" s="3">
         <v>1900</v>
       </c>
-      <c r="G8" s="3">
-        <v>9100</v>
-      </c>
       <c r="H8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I8" s="3">
         <v>1200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2300</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1900</v>
       </c>
       <c r="S8" s="3">
         <v>1900</v>
       </c>
       <c r="T8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U8" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="3">
-        <v>200</v>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
       </c>
       <c r="G9" s="3">
+        <v>200</v>
+      </c>
+      <c r="H9" s="3">
         <v>2600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1600</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1900</v>
       </c>
       <c r="P9" s="3">
         <v>1900</v>
       </c>
       <c r="Q9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R9" s="3">
         <v>2300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="3">
         <v>1500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1700</v>
       </c>
-      <c r="G10" s="3">
-        <v>6500</v>
-      </c>
       <c r="H10" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I10" s="3">
         <v>-5200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-4800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-4200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>700</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>-1900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-500</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,64 +947,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E12" s="3">
         <v>7100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>24800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4900</v>
       </c>
-      <c r="G12" s="3">
-        <v>5600</v>
-      </c>
       <c r="H12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I12" s="3">
         <v>2800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1047,8 +1063,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1073,11 +1092,11 @@
       <c r="J14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="3">
         <v>700</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>35</v>
@@ -1094,8 +1113,8 @@
       <c r="Q14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1103,40 +1122,43 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>400</v>
+      </c>
+      <c r="E15" s="3">
         <v>300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>400</v>
-      </c>
-      <c r="G15" s="3">
-        <v>700</v>
       </c>
       <c r="H15" s="3">
         <v>300</v>
       </c>
       <c r="I15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J15" s="3">
         <v>200</v>
       </c>
       <c r="K15" s="3">
+        <v>200</v>
+      </c>
+      <c r="L15" s="3">
         <v>700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>600</v>
-      </c>
-      <c r="M15" s="3">
-        <v>400</v>
       </c>
       <c r="N15" s="3">
         <v>400</v>
@@ -1159,8 +1181,11 @@
       <c r="T15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1203,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E17" s="3">
         <v>11100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>28500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8600</v>
       </c>
-      <c r="G17" s="3">
-        <v>15700</v>
-      </c>
       <c r="H17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I17" s="3">
         <v>5000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-26800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6700</v>
       </c>
-      <c r="G18" s="3">
-        <v>-6600</v>
-      </c>
       <c r="H18" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="I18" s="3">
         <v>-3800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1312,237 +1344,250 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>-1700</v>
       </c>
       <c r="T20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-52300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-9100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-26500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6100</v>
       </c>
-      <c r="G21" s="3">
-        <v>-5500</v>
-      </c>
       <c r="H21" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I21" s="3">
         <v>-3300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>300</v>
       </c>
       <c r="Q22" s="3">
         <v>300</v>
       </c>
       <c r="R22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S22" s="3">
         <v>400</v>
       </c>
       <c r="T22" s="3">
+        <v>400</v>
+      </c>
+      <c r="U22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-27100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7100</v>
       </c>
-      <c r="G23" s="3">
-        <v>-6900</v>
-      </c>
       <c r="H23" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-4200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1551,11 +1596,11 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1563,37 +1608,40 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1648,120 +1696,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-27100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="L26" s="3">
         <v>-6900</v>
       </c>
-      <c r="H26" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-27100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="S27" s="3">
         <v>-6100</v>
       </c>
-      <c r="H27" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="T27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="U27" s="3">
         <v>-2600</v>
       </c>
-      <c r="N27" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-900</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-2600</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1816,40 +1873,43 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E29" s="3">
         <v>7100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>6700</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>82500</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="H29" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I29" s="3">
         <v>-400</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-300</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>35</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1872,8 +1932,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1928,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1984,120 +2050,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>1700</v>
       </c>
       <c r="T32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-51600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-20400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>75600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2152,125 +2227,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-51600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-20400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>75600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43159</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43069</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42886</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42794</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42704</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2291,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2313,64 +2398,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E41" s="3">
         <v>88800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>97500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>107100</v>
       </c>
-      <c r="G41" s="3">
-        <v>11400</v>
-      </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>10100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2407,8 +2496,8 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>35</v>
+      <c r="O42" s="3">
+        <v>0</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>35</v>
@@ -2416,73 +2505,79 @@
       <c r="Q42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S42" s="3">
         <v>100</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E43" s="3">
         <v>4300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3100</v>
       </c>
-      <c r="G43" s="3">
-        <v>10700</v>
-      </c>
       <c r="H43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I43" s="3">
         <v>7300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2493,332 +2588,350 @@
         <v>200</v>
       </c>
       <c r="F44" s="3">
+        <v>200</v>
+      </c>
+      <c r="G44" s="3">
         <v>100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
+        <v>100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K44" s="3">
         <v>2000</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1900</v>
-      </c>
-      <c r="I44" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J44" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1700</v>
       </c>
       <c r="L44" s="3">
         <v>1700</v>
       </c>
       <c r="M44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N44" s="3">
         <v>1200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>600</v>
-      </c>
-      <c r="S44" s="3">
-        <v>400</v>
       </c>
       <c r="T44" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2700</v>
       </c>
-      <c r="G45" s="3">
-        <v>1900</v>
-      </c>
       <c r="H45" s="3">
-        <v>1600</v>
+        <v>76100</v>
       </c>
       <c r="I45" s="3">
         <v>1600</v>
       </c>
       <c r="J45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E46" s="3">
         <v>95000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>104300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>112900</v>
       </c>
-      <c r="G46" s="3">
-        <v>26000</v>
-      </c>
       <c r="H46" s="3">
+        <v>78300</v>
+      </c>
+      <c r="I46" s="3">
         <v>20800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>27100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>23900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>30300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>200</v>
+      </c>
+      <c r="E47" s="3">
         <v>3300</v>
-      </c>
-      <c r="E47" s="3">
-        <v>3200</v>
       </c>
       <c r="F47" s="3">
         <v>3200</v>
       </c>
       <c r="G47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H47" s="3">
         <v>2600</v>
-      </c>
-      <c r="H47" s="3">
-        <v>2100</v>
       </c>
       <c r="I47" s="3">
         <v>2100</v>
       </c>
       <c r="J47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K47" s="3">
         <v>2000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1000</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>1100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>300</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="S47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
-      <c r="T47" s="3" t="s">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E48" s="3">
         <v>3500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3100</v>
       </c>
-      <c r="G48" s="3">
-        <v>34000</v>
-      </c>
       <c r="H48" s="3">
+        <v>37100</v>
+      </c>
+      <c r="I48" s="3">
         <v>27300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>24300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>27100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4800</v>
-      </c>
-      <c r="R48" s="3">
-        <v>4600</v>
       </c>
       <c r="S48" s="3">
         <v>4600</v>
       </c>
       <c r="T48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="U48" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E49" s="3">
         <v>7800</v>
-      </c>
-      <c r="E49" s="3">
-        <v>7700</v>
       </c>
       <c r="F49" s="3">
         <v>7700</v>
       </c>
       <c r="G49" s="3">
-        <v>29100</v>
+        <v>7700</v>
       </c>
       <c r="H49" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I49" s="3">
         <v>28700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>30500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>30800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>31900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>33200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>24600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>26100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>25700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>26200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>25000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>24200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>24600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,49 +3045,52 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
-        <v>700</v>
-      </c>
       <c r="H52" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="I52" s="3">
         <v>700</v>
       </c>
       <c r="J52" s="3">
+        <v>700</v>
+      </c>
+      <c r="K52" s="3">
         <v>800</v>
-      </c>
-      <c r="K52" s="3">
-        <v>400</v>
       </c>
       <c r="L52" s="3">
         <v>400</v>
       </c>
       <c r="M52" s="3">
+        <v>400</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>400</v>
       </c>
       <c r="O52" s="3">
         <v>400</v>
       </c>
       <c r="P52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Q52" s="3">
         <v>100</v>
@@ -2985,8 +3104,11 @@
       <c r="T52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,64 +3163,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>77700</v>
+      </c>
+      <c r="E54" s="3">
         <v>110800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>119200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>127200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>92500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>79600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>84600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>84800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>75400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>69300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>47000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>42400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>39900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>37400</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>36300</v>
       </c>
       <c r="R54" s="3">
         <v>36300</v>
       </c>
       <c r="S54" s="3">
+        <v>36300</v>
+      </c>
+      <c r="T54" s="3">
         <v>33500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,69 +3270,73 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E57" s="3">
         <v>3600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
-        <v>11300</v>
-      </c>
       <c r="H57" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I57" s="3">
         <v>7700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>400</v>
+        <v>4100</v>
       </c>
       <c r="E58" s="3">
         <v>400</v>
@@ -3212,40 +3345,40 @@
         <v>400</v>
       </c>
       <c r="G58" s="3">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="H58" s="3">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="I58" s="3">
         <v>1300</v>
       </c>
       <c r="J58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1000</v>
       </c>
       <c r="L58" s="3">
         <v>1000</v>
       </c>
       <c r="M58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N58" s="3">
         <v>900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>3200</v>
       </c>
       <c r="P58" s="3">
         <v>3200</v>
       </c>
       <c r="Q58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R58" s="3">
         <v>2600</v>
-      </c>
-      <c r="R58" s="3">
-        <v>5500</v>
       </c>
       <c r="S58" s="3">
         <v>5500</v>
@@ -3253,232 +3386,247 @@
       <c r="T58" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E59" s="3">
         <v>8400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24100</v>
       </c>
-      <c r="G59" s="3">
-        <v>18800</v>
-      </c>
       <c r="H59" s="3">
+        <v>36100</v>
+      </c>
+      <c r="I59" s="3">
         <v>15400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>15000</v>
       </c>
       <c r="J59" s="3">
         <v>15000</v>
       </c>
       <c r="K59" s="3">
+        <v>15000</v>
+      </c>
+      <c r="L59" s="3">
         <v>12300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E60" s="3">
         <v>12400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>25900</v>
       </c>
-      <c r="G60" s="3">
-        <v>31600</v>
-      </c>
       <c r="H60" s="3">
+        <v>42400</v>
+      </c>
+      <c r="I60" s="3">
         <v>24400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>23100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>21800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>17600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>16100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>18100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E61" s="3">
         <v>10600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>10900</v>
       </c>
-      <c r="G61" s="3">
-        <v>14100</v>
-      </c>
       <c r="H61" s="3">
-        <v>10300</v>
+        <v>12100</v>
       </c>
       <c r="I61" s="3">
         <v>10300</v>
       </c>
       <c r="J61" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K61" s="3">
         <v>3400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>800</v>
       </c>
-      <c r="G62" s="3">
-        <v>9800</v>
-      </c>
       <c r="H62" s="3">
+        <v>900</v>
+      </c>
+      <c r="I62" s="3">
         <v>9700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3589,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,64 +3799,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E66" s="3">
         <v>24100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>31000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>37700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>87000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>69100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>68400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>64000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>47100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>39700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>25700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>26200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>26400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>30600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>21000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,64 +4117,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-88300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-36700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-34300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-89400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-83200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-78700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-73500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-62400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-57400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-52300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-49700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-44100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-41300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-39400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-38800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-31800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,64 +4353,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>52600</v>
+      </c>
+      <c r="E76" s="3">
         <v>86700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>88200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>89500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>25800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4471,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43159</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43069</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42886</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42794</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42704</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-51600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-20400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>75600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,37 +4619,38 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>400</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>800</v>
-      </c>
-      <c r="L83" s="3">
-        <v>600</v>
       </c>
       <c r="M83" s="3">
         <v>600</v>
@@ -4461,25 +4659,28 @@
         <v>600</v>
       </c>
       <c r="O83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="P83" s="3">
         <v>700</v>
       </c>
       <c r="Q83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="R83" s="3">
         <v>600</v>
       </c>
       <c r="S83" s="3">
+        <v>600</v>
+      </c>
+      <c r="T83" s="3">
         <v>900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4971,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,64 +5055,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>-300</v>
       </c>
       <c r="F91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-200</v>
       </c>
       <c r="Q91" s="3">
         <v>-200</v>
       </c>
       <c r="R91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5230,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E94" s="3">
         <v>1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>103000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-500</v>
       </c>
       <c r="Q94" s="3">
         <v>-500</v>
       </c>
       <c r="R94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,172 +5548,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>10400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>7200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>19400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>95600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12300</v>
-      </c>
-      <c r="M102" s="3">
-        <v>700</v>
       </c>
       <c r="N102" s="3">
         <v>700</v>
       </c>
       <c r="O102" s="3">
+        <v>700</v>
+      </c>
+      <c r="P102" s="3">
         <v>2800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORGS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORGS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>ORGS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,150 +665,157 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43251</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43159</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43069</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42978</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42886</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42794</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42704</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E8" s="3">
         <v>2300</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1700</v>
       </c>
       <c r="F8" s="3">
         <v>1700</v>
       </c>
       <c r="G8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H8" s="3">
         <v>1900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2300</v>
-      </c>
-      <c r="S8" s="3">
-        <v>1900</v>
       </c>
       <c r="T8" s="3">
         <v>1900</v>
       </c>
       <c r="U8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V8" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -818,56 +825,59 @@
       <c r="E9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="3">
-        <v>200</v>
+      <c r="F9" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
       </c>
       <c r="H9" s="3">
+        <v>200</v>
+      </c>
+      <c r="I9" s="3">
         <v>2600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1600</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1900</v>
       </c>
       <c r="Q9" s="3">
         <v>1900</v>
       </c>
       <c r="R9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S9" s="3">
         <v>2300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,56 +887,59 @@
       <c r="E10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="3">
         <v>1500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-1500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-5200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-4800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-4200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>700</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>-1900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-500</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -948,67 +961,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E12" s="3">
         <v>50100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>24800</v>
       </c>
-      <c r="G12" s="3">
-        <v>4900</v>
-      </c>
       <c r="H12" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I12" s="3">
         <v>3000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1066,8 +1083,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1095,11 +1115,11 @@
       <c r="K14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="3">
         <v>700</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>35</v>
@@ -1116,8 +1136,8 @@
       <c r="R14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1125,43 +1145,46 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>500</v>
+      </c>
+      <c r="E15" s="3">
         <v>400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>400</v>
-      </c>
-      <c r="H15" s="3">
-        <v>300</v>
       </c>
       <c r="I15" s="3">
         <v>300</v>
       </c>
       <c r="J15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K15" s="3">
         <v>200</v>
       </c>
       <c r="L15" s="3">
+        <v>200</v>
+      </c>
+      <c r="M15" s="3">
         <v>700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>600</v>
-      </c>
-      <c r="N15" s="3">
-        <v>400</v>
       </c>
       <c r="O15" s="3">
         <v>400</v>
@@ -1184,8 +1207,11 @@
       <c r="U15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,126 +1230,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E17" s="3">
         <v>55200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>28500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-52900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-9400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-26800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1345,126 +1378,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>-1700</v>
       </c>
       <c r="U20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-52300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-9100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-26500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1472,126 +1512,132 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>300</v>
       </c>
       <c r="R22" s="3">
         <v>300</v>
       </c>
       <c r="S22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T22" s="3">
         <v>400</v>
       </c>
       <c r="U22" s="3">
+        <v>400</v>
+      </c>
+      <c r="V22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-53000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-27100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1600</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1599,11 +1645,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1611,37 +1657,40 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1699,126 +1748,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-51400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-27100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-51400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-27100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1876,43 +1934,46 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>7100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>6700</v>
       </c>
-      <c r="G29" s="3">
-        <v>82500</v>
-      </c>
       <c r="H29" s="3">
+        <v>159000</v>
+      </c>
+      <c r="I29" s="3">
         <v>-1200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-300</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>35</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1935,8 +1996,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2053,126 +2120,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>1700</v>
       </c>
       <c r="U32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-51600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20400</v>
       </c>
-      <c r="G33" s="3">
-        <v>75600</v>
-      </c>
       <c r="H33" s="3">
+        <v>152000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-6100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2230,131 +2306,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-51600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20400</v>
       </c>
-      <c r="G35" s="3">
-        <v>75600</v>
-      </c>
       <c r="H35" s="3">
+        <v>152000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-6100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43251</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43159</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43069</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42978</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42886</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42794</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42704</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2399,67 +2485,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E41" s="3">
         <v>44900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>88800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>97500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>107100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2499,8 +2589,8 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>35</v>
+      <c r="P42" s="3">
+        <v>0</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>35</v>
@@ -2508,76 +2598,82 @@
       <c r="R42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T42" s="3">
         <v>100</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E43" s="3">
         <v>3300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2591,170 +2687,179 @@
         <v>200</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
       </c>
       <c r="I44" s="3">
+        <v>100</v>
+      </c>
+      <c r="J44" s="3">
         <v>1900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2000</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1700</v>
       </c>
       <c r="M44" s="3">
         <v>1700</v>
       </c>
       <c r="N44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O44" s="3">
         <v>1200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>600</v>
-      </c>
-      <c r="T44" s="3">
-        <v>400</v>
       </c>
       <c r="U44" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
         <v>1700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>76100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1600</v>
       </c>
       <c r="J45" s="3">
         <v>1600</v>
       </c>
       <c r="K45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E46" s="3">
         <v>50100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>95000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>104300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>112900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>78300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>20800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>27100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>23900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>30300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>24700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2762,176 +2867,185 @@
         <v>200</v>
       </c>
       <c r="E47" s="3">
+        <v>200</v>
+      </c>
+      <c r="F47" s="3">
         <v>3300</v>
-      </c>
-      <c r="F47" s="3">
-        <v>3200</v>
       </c>
       <c r="G47" s="3">
         <v>3200</v>
       </c>
       <c r="H47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I47" s="3">
         <v>2600</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2100</v>
       </c>
       <c r="J47" s="3">
         <v>2100</v>
       </c>
       <c r="K47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L47" s="3">
         <v>2000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1000</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>1100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>300</v>
       </c>
-      <c r="S47" s="3" t="s">
+      <c r="T47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-      <c r="U47" s="3" t="s">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E48" s="3">
         <v>4500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>37100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>27300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>24300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4800</v>
-      </c>
-      <c r="S48" s="3">
-        <v>4600</v>
       </c>
       <c r="T48" s="3">
         <v>4600</v>
       </c>
       <c r="U48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="V48" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E49" s="3">
         <v>21800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>7700</v>
       </c>
       <c r="G49" s="3">
         <v>7700</v>
       </c>
       <c r="H49" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I49" s="3">
         <v>8200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>28700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>30500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>30800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>31900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>33200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>24600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>26100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>25700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>26200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>25000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>24200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>24600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,52 +3165,55 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>300</v>
-      </c>
-      <c r="I52" s="3">
-        <v>700</v>
       </c>
       <c r="J52" s="3">
         <v>700</v>
       </c>
       <c r="K52" s="3">
+        <v>700</v>
+      </c>
+      <c r="L52" s="3">
         <v>800</v>
-      </c>
-      <c r="L52" s="3">
-        <v>400</v>
       </c>
       <c r="M52" s="3">
         <v>400</v>
       </c>
       <c r="N52" s="3">
+        <v>400</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
-      </c>
-      <c r="O52" s="3">
-        <v>400</v>
       </c>
       <c r="P52" s="3">
         <v>400</v>
       </c>
       <c r="Q52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="R52" s="3">
         <v>100</v>
@@ -3107,8 +3227,11 @@
       <c r="U52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,67 +3289,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>82100</v>
+      </c>
+      <c r="E54" s="3">
         <v>77700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>110800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>119200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>127200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>92500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>79600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>84600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>84800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>75400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>69300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>47000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>42400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>39900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>37400</v>
-      </c>
-      <c r="R54" s="3">
-        <v>36300</v>
       </c>
       <c r="S54" s="3">
         <v>36300</v>
       </c>
       <c r="T54" s="3">
+        <v>36300</v>
+      </c>
+      <c r="U54" s="3">
         <v>33500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,75 +3401,79 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E57" s="3">
         <v>8600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E58" s="3">
         <v>4100</v>
-      </c>
-      <c r="E58" s="3">
-        <v>400</v>
       </c>
       <c r="F58" s="3">
         <v>400</v>
@@ -3348,40 +3482,40 @@
         <v>400</v>
       </c>
       <c r="H58" s="3">
+        <v>400</v>
+      </c>
+      <c r="I58" s="3">
         <v>800</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1300</v>
       </c>
       <c r="J58" s="3">
         <v>1300</v>
       </c>
       <c r="K58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L58" s="3">
         <v>1200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1000</v>
       </c>
       <c r="M58" s="3">
         <v>1000</v>
       </c>
       <c r="N58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O58" s="3">
         <v>900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>3200</v>
       </c>
       <c r="Q58" s="3">
         <v>3200</v>
       </c>
       <c r="R58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="S58" s="3">
         <v>2600</v>
-      </c>
-      <c r="S58" s="3">
-        <v>5500</v>
       </c>
       <c r="T58" s="3">
         <v>5500</v>
@@ -3389,244 +3523,259 @@
       <c r="U58" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E59" s="3">
         <v>3500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>36100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>15000</v>
       </c>
       <c r="K59" s="3">
         <v>15000</v>
       </c>
       <c r="L59" s="3">
+        <v>15000</v>
+      </c>
+      <c r="M59" s="3">
         <v>12300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E60" s="3">
         <v>16300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>25900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>42400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>24400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>23100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>17600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>16100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>18100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E61" s="3">
         <v>7300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>10300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>10900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>12100</v>
-      </c>
-      <c r="I61" s="3">
-        <v>10300</v>
       </c>
       <c r="J61" s="3">
         <v>10300</v>
       </c>
       <c r="K61" s="3">
+        <v>10300</v>
+      </c>
+      <c r="L61" s="3">
         <v>3400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E62" s="3">
         <v>1400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,67 +3957,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E66" s="3">
         <v>25100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>24100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>31000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>37700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>87000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>69100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>68400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>64000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>47100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>39700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>25700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>26200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>26400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>30600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>21000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,67 +4291,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-88500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-88300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-36700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-34300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-89400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-83200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-78700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-73500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-62400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-57400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-52300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-49700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-44100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-41300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-39400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-38800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-31800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,67 +4539,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E76" s="3">
         <v>52600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>86700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>88200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>89500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>29600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>25800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,131 +4663,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43251</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43159</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43069</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42978</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42886</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42794</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42704</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-51600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20400</v>
       </c>
-      <c r="G81" s="3">
-        <v>75600</v>
-      </c>
       <c r="H81" s="3">
+        <v>152000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-6100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,40 +4818,41 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
         <v>400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>800</v>
-      </c>
-      <c r="M83" s="3">
-        <v>600</v>
       </c>
       <c r="N83" s="3">
         <v>600</v>
@@ -4662,25 +4861,28 @@
         <v>600</v>
       </c>
       <c r="P83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q83" s="3">
         <v>700</v>
       </c>
       <c r="R83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="S83" s="3">
         <v>600</v>
       </c>
       <c r="T83" s="3">
+        <v>600</v>
+      </c>
+      <c r="U83" s="3">
         <v>900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,67 +5188,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-45200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,67 +5276,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-300</v>
       </c>
       <c r="F91" s="3">
         <v>-300</v>
       </c>
       <c r="G91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-200</v>
       </c>
       <c r="R91" s="3">
         <v>-200</v>
       </c>
       <c r="S91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,67 +5460,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>1700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>103000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-500</v>
       </c>
       <c r="R94" s="3">
         <v>-500</v>
       </c>
       <c r="S94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5548,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5374,8 +5608,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,181 +5794,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>10400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>7200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>19400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>7600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-43700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>95600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12300</v>
-      </c>
-      <c r="N102" s="3">
-        <v>700</v>
       </c>
       <c r="O102" s="3">
         <v>700</v>
       </c>
       <c r="P102" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q102" s="3">
         <v>2800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORGS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORGS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>ORGS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,164 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43434</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43343</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43251</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43159</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43069</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42978</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42886</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42794</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42704</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E8" s="3">
         <v>9400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2300</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1700</v>
       </c>
       <c r="G8" s="3">
         <v>1700</v>
       </c>
       <c r="H8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I8" s="3">
         <v>1900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2300</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1900</v>
       </c>
       <c r="U8" s="3">
         <v>1900</v>
       </c>
       <c r="V8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="W8" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,56 +835,59 @@
       <c r="F9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="3">
-        <v>200</v>
+      <c r="G9" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
       </c>
       <c r="I9" s="3">
+        <v>200</v>
+      </c>
+      <c r="J9" s="3">
         <v>2600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1900</v>
       </c>
       <c r="R9" s="3">
         <v>1900</v>
       </c>
       <c r="S9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T9" s="3">
         <v>2300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -890,56 +900,59 @@
       <c r="F10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="3">
         <v>1500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-1500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-5200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-4800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-4200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>700</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>-1900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-500</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,70 +975,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E12" s="3">
         <v>6100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>50100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>24800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1086,8 +1103,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1118,11 +1138,11 @@
       <c r="L14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="3">
         <v>700</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>35</v>
@@ -1139,8 +1159,8 @@
       <c r="S14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1148,8 +1168,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1157,37 +1180,37 @@
         <v>500</v>
       </c>
       <c r="E15" s="3">
+        <v>500</v>
+      </c>
+      <c r="F15" s="3">
         <v>400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>400</v>
-      </c>
-      <c r="I15" s="3">
-        <v>300</v>
       </c>
       <c r="J15" s="3">
         <v>300</v>
       </c>
       <c r="K15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L15" s="3">
         <v>200</v>
       </c>
       <c r="M15" s="3">
+        <v>200</v>
+      </c>
+      <c r="N15" s="3">
         <v>700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>600</v>
-      </c>
-      <c r="O15" s="3">
-        <v>400</v>
       </c>
       <c r="P15" s="3">
         <v>400</v>
@@ -1210,8 +1233,11 @@
       <c r="V15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,132 +1257,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E17" s="3">
         <v>9300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>55200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>28500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-52900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-26800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1379,132 +1412,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>-1700</v>
       </c>
       <c r="V20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="W20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-52300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-9100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-26500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1515,120 +1555,126 @@
         <v>300</v>
       </c>
       <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>300</v>
       </c>
       <c r="S22" s="3">
         <v>300</v>
       </c>
       <c r="T22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="U22" s="3">
         <v>400</v>
       </c>
       <c r="V22" s="3">
+        <v>400</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-53000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-27100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1636,11 +1682,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1600</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1648,11 +1694,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1660,37 +1706,40 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1751,132 +1800,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-51400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-27100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-51400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-27100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1937,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1946,37 +2007,37 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>7100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>6700</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>159000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-1200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-300</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>35</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -1999,8 +2060,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2061,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2123,132 +2190,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>1700</v>
       </c>
       <c r="V32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="W32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-51600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-20400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>152000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2309,137 +2385,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-51600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-20400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>152000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43434</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43343</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43251</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43159</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43069</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42978</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42886</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42794</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42704</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2462,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2486,70 +2572,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E41" s="3">
         <v>41800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>44900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>88800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>97500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>107100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2592,8 +2682,8 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>35</v>
+      <c r="Q42" s="3">
+        <v>0</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>35</v>
@@ -2601,79 +2691,85 @@
       <c r="S42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U42" s="3">
         <v>100</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E43" s="3">
         <v>11500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2690,176 +2786,185 @@
         <v>200</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
       </c>
       <c r="J44" s="3">
+        <v>100</v>
+      </c>
+      <c r="K44" s="3">
         <v>1900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2000</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1700</v>
       </c>
       <c r="N44" s="3">
         <v>1700</v>
       </c>
       <c r="O44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P44" s="3">
         <v>1200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>600</v>
-      </c>
-      <c r="U44" s="3">
-        <v>400</v>
       </c>
       <c r="V44" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>76100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1600</v>
       </c>
       <c r="K45" s="3">
         <v>1600</v>
       </c>
       <c r="L45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E46" s="3">
         <v>54700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>50100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>95000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>104300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>112900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>78300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>20800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>27100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>23900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>30300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>24700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2870,182 +2975,191 @@
         <v>200</v>
       </c>
       <c r="F47" s="3">
+        <v>200</v>
+      </c>
+      <c r="G47" s="3">
         <v>3300</v>
-      </c>
-      <c r="G47" s="3">
-        <v>3200</v>
       </c>
       <c r="H47" s="3">
         <v>3200</v>
       </c>
       <c r="I47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J47" s="3">
         <v>2600</v>
-      </c>
-      <c r="J47" s="3">
-        <v>2100</v>
       </c>
       <c r="K47" s="3">
         <v>2100</v>
       </c>
       <c r="L47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M47" s="3">
         <v>2000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1000</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
       <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>1100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>300</v>
       </c>
-      <c r="T47" s="3" t="s">
+      <c r="U47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
-      <c r="V47" s="3" t="s">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E48" s="3">
         <v>4800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3100</v>
       </c>
-      <c r="I48" s="3">
-        <v>37100</v>
-      </c>
       <c r="J48" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K48" s="3">
         <v>27300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4800</v>
-      </c>
-      <c r="T48" s="3">
-        <v>4600</v>
       </c>
       <c r="U48" s="3">
         <v>4600</v>
       </c>
       <c r="V48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="W48" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E49" s="3">
         <v>21300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>21800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7800</v>
-      </c>
-      <c r="G49" s="3">
-        <v>7700</v>
       </c>
       <c r="H49" s="3">
         <v>7700</v>
       </c>
       <c r="I49" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J49" s="3">
         <v>8200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>28700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>30500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>30800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>31900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>33200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>24600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>26100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>25700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>26200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>25000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>24200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>24600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,8 +3285,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3177,46 +3297,46 @@
         <v>1200</v>
       </c>
       <c r="E52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F52" s="3">
         <v>1100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>700</v>
       </c>
       <c r="K52" s="3">
         <v>700</v>
       </c>
       <c r="L52" s="3">
+        <v>700</v>
+      </c>
+      <c r="M52" s="3">
         <v>800</v>
-      </c>
-      <c r="M52" s="3">
-        <v>400</v>
       </c>
       <c r="N52" s="3">
         <v>400</v>
       </c>
       <c r="O52" s="3">
+        <v>400</v>
+      </c>
+      <c r="P52" s="3">
         <v>100</v>
-      </c>
-      <c r="P52" s="3">
-        <v>400</v>
       </c>
       <c r="Q52" s="3">
         <v>400</v>
       </c>
       <c r="R52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="S52" s="3">
         <v>100</v>
@@ -3230,8 +3350,11 @@
       <c r="V52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,70 +3415,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>75600</v>
+      </c>
+      <c r="E54" s="3">
         <v>82100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>77700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>110800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>119200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>127200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>92500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>79600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>84600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>84800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>75400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>69300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>47000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>42400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>39900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>37400</v>
-      </c>
-      <c r="S54" s="3">
-        <v>36300</v>
       </c>
       <c r="T54" s="3">
         <v>36300</v>
       </c>
       <c r="U54" s="3">
+        <v>36300</v>
+      </c>
+      <c r="V54" s="3">
         <v>33500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,81 +3532,85 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E57" s="3">
         <v>10300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E58" s="3">
         <v>4300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>400</v>
       </c>
       <c r="G58" s="3">
         <v>400</v>
@@ -3485,40 +3619,40 @@
         <v>400</v>
       </c>
       <c r="I58" s="3">
+        <v>400</v>
+      </c>
+      <c r="J58" s="3">
         <v>800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1300</v>
       </c>
       <c r="K58" s="3">
         <v>1300</v>
       </c>
       <c r="L58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M58" s="3">
         <v>1200</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1000</v>
       </c>
       <c r="N58" s="3">
         <v>1000</v>
       </c>
       <c r="O58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P58" s="3">
         <v>900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>3200</v>
       </c>
       <c r="R58" s="3">
         <v>3200</v>
       </c>
       <c r="S58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="T58" s="3">
         <v>2600</v>
-      </c>
-      <c r="T58" s="3">
-        <v>5500</v>
       </c>
       <c r="U58" s="3">
         <v>5500</v>
@@ -3526,256 +3660,271 @@
       <c r="V58" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E59" s="3">
         <v>4300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>24100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>36100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>15000</v>
       </c>
       <c r="L59" s="3">
         <v>15000</v>
       </c>
       <c r="M59" s="3">
+        <v>15000</v>
+      </c>
+      <c r="N59" s="3">
         <v>12300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E60" s="3">
         <v>18900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>25900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>42400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>24400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>16900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>17600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>16100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>18100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>14500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E61" s="3">
         <v>7100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>10600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>10300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>10900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>12100</v>
-      </c>
-      <c r="J61" s="3">
-        <v>10300</v>
       </c>
       <c r="K61" s="3">
         <v>10300</v>
       </c>
       <c r="L61" s="3">
+        <v>10300</v>
+      </c>
+      <c r="M61" s="3">
         <v>3400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3898,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,70 +4115,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E66" s="3">
         <v>27600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>25100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>24100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>31000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>37700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>87000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>69100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>68400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>64000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>47100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>39700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>25700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>26200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>26400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>30600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>21000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4232,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,70 +4465,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-91200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-88500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-88300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-36700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-34300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-89400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-83200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-78700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-73500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-62400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-57400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-52300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-49700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-44100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-41300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-39400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-38800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-31800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,70 +4725,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E76" s="3">
         <v>54500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>52600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>86700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>88200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>89500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>29600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>25800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,137 +4855,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43434</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43343</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43251</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43159</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43069</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42978</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42886</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42794</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42704</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-51600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-20400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>152000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,8 +5017,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4828,34 +5027,34 @@
         <v>500</v>
       </c>
       <c r="E83" s="3">
+        <v>500</v>
+      </c>
+      <c r="F83" s="3">
         <v>400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>800</v>
-      </c>
-      <c r="N83" s="3">
-        <v>600</v>
       </c>
       <c r="O83" s="3">
         <v>600</v>
@@ -4864,25 +5063,28 @@
         <v>600</v>
       </c>
       <c r="Q83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="R83" s="3">
         <v>700</v>
       </c>
       <c r="S83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T83" s="3">
         <v>600</v>
       </c>
       <c r="U83" s="3">
+        <v>600</v>
+      </c>
+      <c r="V83" s="3">
         <v>900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,70 +5405,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-45200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,70 +5497,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-300</v>
       </c>
       <c r="G91" s="3">
         <v>-300</v>
       </c>
       <c r="H91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-200</v>
       </c>
       <c r="S91" s="3">
         <v>-200</v>
       </c>
       <c r="T91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U91" s="3">
         <v>-500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,70 +5690,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>103000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-500</v>
       </c>
       <c r="S94" s="3">
         <v>-500</v>
       </c>
       <c r="T94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U94" s="3">
         <v>-400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5611,8 +5845,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,190 +6040,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E100" s="3">
         <v>1900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>10400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>19400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>7600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-43700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>95600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12300</v>
-      </c>
-      <c r="O102" s="3">
-        <v>700</v>
       </c>
       <c r="P102" s="3">
         <v>700</v>
       </c>
       <c r="Q102" s="3">
+        <v>700</v>
+      </c>
+      <c r="R102" s="3">
         <v>2800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORGS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORGS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>ORGS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,164 +665,171 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43343</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43251</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43159</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43069</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42978</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42886</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42794</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42704</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E8" s="3">
         <v>10500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2300</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1700</v>
       </c>
       <c r="H8" s="3">
         <v>1700</v>
       </c>
       <c r="I8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J8" s="3">
         <v>1900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2300</v>
-      </c>
-      <c r="U8" s="3">
-        <v>1900</v>
       </c>
       <c r="V8" s="3">
         <v>1900</v>
       </c>
       <c r="W8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="X8" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,56 +845,59 @@
       <c r="G9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="3">
-        <v>200</v>
+      <c r="H9" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
       </c>
       <c r="J9" s="3">
+        <v>200</v>
+      </c>
+      <c r="K9" s="3">
         <v>2600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1600</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1900</v>
       </c>
       <c r="S9" s="3">
         <v>1900</v>
       </c>
       <c r="T9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U9" s="3">
         <v>2300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -903,56 +913,59 @@
       <c r="G10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="3">
         <v>1500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-1500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-5200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-4800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-4200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>700</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
       <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>-1900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-500</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,73 +989,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E12" s="3">
         <v>9600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>50100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>24800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1106,13 +1123,16 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
+      <c r="D14" s="3">
+        <v>1900</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>35</v>
@@ -1141,11 +1161,11 @@
       <c r="M14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="3">
         <v>700</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>35</v>
@@ -1162,8 +1182,8 @@
       <c r="T14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1171,8 +1191,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1183,37 +1206,37 @@
         <v>500</v>
       </c>
       <c r="F15" s="3">
+        <v>500</v>
+      </c>
+      <c r="G15" s="3">
         <v>400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>400</v>
-      </c>
-      <c r="J15" s="3">
-        <v>300</v>
       </c>
       <c r="K15" s="3">
         <v>300</v>
       </c>
       <c r="L15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M15" s="3">
         <v>200</v>
       </c>
       <c r="N15" s="3">
+        <v>200</v>
+      </c>
+      <c r="O15" s="3">
         <v>700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>600</v>
-      </c>
-      <c r="P15" s="3">
-        <v>400</v>
       </c>
       <c r="Q15" s="3">
         <v>400</v>
@@ -1236,8 +1259,11 @@
       <c r="W15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,138 +1284,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E17" s="3">
         <v>12900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>55200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>28500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-52900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-26800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1413,138 +1446,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>-1700</v>
       </c>
       <c r="W20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="X20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-52300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-9100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-26500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-4600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-3700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1558,138 +1598,144 @@
         <v>300</v>
       </c>
       <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>200</v>
-      </c>
-      <c r="S22" s="3">
-        <v>300</v>
       </c>
       <c r="T22" s="3">
         <v>300</v>
       </c>
       <c r="U22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="V22" s="3">
         <v>400</v>
       </c>
       <c r="W22" s="3">
+        <v>400</v>
+      </c>
+      <c r="X22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-53000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-27100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-1600</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1697,11 +1743,11 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1709,37 +1755,40 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1803,138 +1852,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-51400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-27100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-6100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-51400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-27100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-6100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1998,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2010,37 +2071,37 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-200</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>7100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>6700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>159000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-1200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-300</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>35</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2063,8 +2124,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2193,138 +2260,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>1700</v>
       </c>
       <c r="W32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="X32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-51600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-20400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>152000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-6100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2388,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-51600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-20400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>152000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-6100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43343</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43251</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43159</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43069</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42978</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42886</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42794</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42704</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2548,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2573,73 +2659,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E41" s="3">
         <v>28400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>41800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>44900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>88800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>97500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>107100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2685,8 +2775,8 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>35</v>
+      <c r="R42" s="3">
+        <v>0</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>35</v>
@@ -2694,87 +2784,93 @@
       <c r="T42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V42" s="3">
         <v>100</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E43" s="3">
         <v>17400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
@@ -2789,187 +2885,196 @@
         <v>200</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
       </c>
       <c r="K44" s="3">
+        <v>100</v>
+      </c>
+      <c r="L44" s="3">
         <v>1900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2000</v>
-      </c>
-      <c r="N44" s="3">
-        <v>1700</v>
       </c>
       <c r="O44" s="3">
         <v>1700</v>
       </c>
       <c r="P44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>600</v>
-      </c>
-      <c r="V44" s="3">
-        <v>400</v>
       </c>
       <c r="W44" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>76100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1600</v>
       </c>
       <c r="L45" s="3">
         <v>1600</v>
       </c>
       <c r="M45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N45" s="3">
         <v>1400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E46" s="3">
         <v>47800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>54700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>50100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>95000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>104300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>112900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>78300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>27100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>23900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>30300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>24700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>13700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E47" s="3">
         <v>200</v>
@@ -2978,188 +3083,197 @@
         <v>200</v>
       </c>
       <c r="G47" s="3">
+        <v>200</v>
+      </c>
+      <c r="H47" s="3">
         <v>3300</v>
-      </c>
-      <c r="H47" s="3">
-        <v>3200</v>
       </c>
       <c r="I47" s="3">
         <v>3200</v>
       </c>
       <c r="J47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K47" s="3">
         <v>2600</v>
-      </c>
-      <c r="K47" s="3">
-        <v>2100</v>
       </c>
       <c r="L47" s="3">
         <v>2100</v>
       </c>
       <c r="M47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N47" s="3">
         <v>2000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1000</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
         <v>1100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>300</v>
       </c>
-      <c r="U47" s="3" t="s">
+      <c r="V47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
-      </c>
-      <c r="W47" s="3" t="s">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E48" s="3">
         <v>5400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>27500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>27100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4800</v>
-      </c>
-      <c r="U48" s="3">
-        <v>4600</v>
       </c>
       <c r="V48" s="3">
         <v>4600</v>
       </c>
       <c r="W48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="X48" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E49" s="3">
         <v>21000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>21300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>21800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7800</v>
-      </c>
-      <c r="H49" s="3">
-        <v>7700</v>
       </c>
       <c r="I49" s="3">
         <v>7700</v>
       </c>
       <c r="J49" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K49" s="3">
         <v>8200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>28700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>30500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>30800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>31900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>33200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>24600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>26100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>25700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>26200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>25000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>24200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>24600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,8 +3405,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3300,46 +3420,46 @@
         <v>1200</v>
       </c>
       <c r="F52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G52" s="3">
         <v>1100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>700</v>
       </c>
       <c r="L52" s="3">
         <v>700</v>
       </c>
       <c r="M52" s="3">
+        <v>700</v>
+      </c>
+      <c r="N52" s="3">
         <v>800</v>
-      </c>
-      <c r="N52" s="3">
-        <v>400</v>
       </c>
       <c r="O52" s="3">
         <v>400</v>
       </c>
       <c r="P52" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q52" s="3">
         <v>100</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>400</v>
       </c>
       <c r="R52" s="3">
         <v>400</v>
       </c>
       <c r="S52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="T52" s="3">
         <v>100</v>
@@ -3353,8 +3473,11 @@
       <c r="W52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,73 +3541,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>65200</v>
+      </c>
+      <c r="E54" s="3">
         <v>75600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>82100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>77700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>110800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>119200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>127200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>92500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>79600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>84600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>84800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>75400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>69300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>47000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>42400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>39900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>37400</v>
-      </c>
-      <c r="T54" s="3">
-        <v>36300</v>
       </c>
       <c r="U54" s="3">
         <v>36300</v>
       </c>
       <c r="V54" s="3">
+        <v>36300</v>
+      </c>
+      <c r="W54" s="3">
         <v>33500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,87 +3663,91 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E57" s="3">
         <v>5200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E58" s="3">
         <v>6700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>400</v>
       </c>
       <c r="H58" s="3">
         <v>400</v>
@@ -3622,40 +3756,40 @@
         <v>400</v>
       </c>
       <c r="J58" s="3">
+        <v>400</v>
+      </c>
+      <c r="K58" s="3">
         <v>800</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1300</v>
       </c>
       <c r="L58" s="3">
         <v>1300</v>
       </c>
       <c r="M58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N58" s="3">
         <v>1200</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1000</v>
       </c>
       <c r="O58" s="3">
         <v>1000</v>
       </c>
       <c r="P58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>3200</v>
       </c>
       <c r="S58" s="3">
         <v>3200</v>
       </c>
       <c r="T58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="U58" s="3">
         <v>2600</v>
-      </c>
-      <c r="U58" s="3">
-        <v>5500</v>
       </c>
       <c r="V58" s="3">
         <v>5500</v>
@@ -3663,268 +3797,283 @@
       <c r="W58" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E59" s="3">
         <v>6200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>24100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>36100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>15000</v>
       </c>
       <c r="M59" s="3">
         <v>15000</v>
       </c>
       <c r="N59" s="3">
+        <v>15000</v>
+      </c>
+      <c r="O59" s="3">
         <v>12300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E60" s="3">
         <v>18200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>25900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>42400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>24400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>23100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>16200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>16900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>17600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>16100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>18100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>14500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E61" s="3">
         <v>4700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>10600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>10300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>10900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>12100</v>
-      </c>
-      <c r="K61" s="3">
-        <v>10300</v>
       </c>
       <c r="L61" s="3">
         <v>10300</v>
       </c>
       <c r="M61" s="3">
+        <v>10300</v>
+      </c>
+      <c r="N61" s="3">
         <v>3400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4053,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,73 +4273,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E66" s="3">
         <v>24200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>27600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>25100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>24100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>31000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>37700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>87000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>69100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>68400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>64000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>47100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>39700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>21200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>22900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>25700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>26200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>26400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>30600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>21000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4403,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,73 +4639,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-101400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-91200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-88500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-88300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-36700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-34300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-89400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-83200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-78700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-73500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-62400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-57400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-52300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-49700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-44100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-41300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-39400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-38800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-31800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,73 +4911,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E76" s="3">
         <v>51400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>54500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>52600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>86700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>88200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>89500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>29600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>25800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43343</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43251</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43159</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43069</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42978</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42886</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42794</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42704</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-51600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-20400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>152000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-6100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,8 +5216,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5030,34 +5229,34 @@
         <v>500</v>
       </c>
       <c r="F83" s="3">
+        <v>500</v>
+      </c>
+      <c r="G83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>800</v>
-      </c>
-      <c r="O83" s="3">
-        <v>600</v>
       </c>
       <c r="P83" s="3">
         <v>600</v>
@@ -5066,25 +5265,28 @@
         <v>600</v>
       </c>
       <c r="R83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="S83" s="3">
         <v>700</v>
       </c>
       <c r="T83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="U83" s="3">
         <v>600</v>
       </c>
       <c r="V83" s="3">
+        <v>600</v>
+      </c>
+      <c r="W83" s="3">
         <v>900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,73 +5622,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-45200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,73 +5718,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-300</v>
       </c>
       <c r="H91" s="3">
         <v>-300</v>
       </c>
       <c r="I91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-200</v>
       </c>
       <c r="T91" s="3">
         <v>-200</v>
       </c>
       <c r="U91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V91" s="3">
         <v>-500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,73 +5920,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>103000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-500</v>
       </c>
       <c r="T94" s="3">
         <v>-500</v>
       </c>
       <c r="U94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V94" s="3">
         <v>-400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5848,8 +6082,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,199 +6286,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>10400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>19400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>7600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-43700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>95600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12300</v>
-      </c>
-      <c r="P102" s="3">
-        <v>700</v>
       </c>
       <c r="Q102" s="3">
         <v>700</v>
       </c>
       <c r="R102" s="3">
+        <v>700</v>
+      </c>
+      <c r="S102" s="3">
         <v>2800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORGS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORGS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>ORGS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,171 +665,177 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43434</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43343</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43251</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43159</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43069</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42978</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42886</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42794</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42704</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E8" s="3">
         <v>8700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2300</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1700</v>
       </c>
       <c r="I8" s="3">
         <v>1700</v>
       </c>
       <c r="J8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2300</v>
-      </c>
-      <c r="V8" s="3">
-        <v>1900</v>
       </c>
       <c r="W8" s="3">
         <v>1900</v>
       </c>
       <c r="X8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Y8" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,56 +854,59 @@
       <c r="H9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="3">
-        <v>200</v>
+      <c r="I9" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="J9" s="3">
         <v>200</v>
       </c>
       <c r="K9" s="3">
+        <v>200</v>
+      </c>
+      <c r="L9" s="3">
         <v>2600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1600</v>
-      </c>
-      <c r="S9" s="3">
-        <v>1900</v>
       </c>
       <c r="T9" s="3">
         <v>1900</v>
       </c>
       <c r="U9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V9" s="3">
         <v>2300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,56 +925,59 @@
       <c r="H10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="3">
         <v>1500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-1500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-5200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-4800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-4200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>700</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>-1900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-500</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,76 +1002,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E12" s="3">
         <v>10000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>50100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>24800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,16 +1142,19 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1900</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>35</v>
@@ -1164,11 +1183,11 @@
       <c r="N14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" s="3">
         <v>700</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>35</v>
@@ -1185,8 +1204,8 @@
       <c r="U14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1194,13 +1213,16 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
         <v>500</v>
@@ -1209,37 +1231,37 @@
         <v>500</v>
       </c>
       <c r="G15" s="3">
+        <v>500</v>
+      </c>
+      <c r="H15" s="3">
         <v>400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>400</v>
-      </c>
-      <c r="K15" s="3">
-        <v>300</v>
       </c>
       <c r="L15" s="3">
         <v>300</v>
       </c>
       <c r="M15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N15" s="3">
         <v>200</v>
       </c>
       <c r="O15" s="3">
+        <v>200</v>
+      </c>
+      <c r="P15" s="3">
         <v>700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>600</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>400</v>
       </c>
       <c r="R15" s="3">
         <v>400</v>
@@ -1262,8 +1284,11 @@
       <c r="X15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,144 +1310,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E17" s="3">
         <v>18200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>55200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>28500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-52900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-26800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1447,149 +1479,156 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="W20" s="3">
         <v>-1700</v>
       </c>
       <c r="X20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-9400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-52300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-9100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-26500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-4600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-3700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
@@ -1601,144 +1640,150 @@
         <v>300</v>
       </c>
       <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>200</v>
-      </c>
-      <c r="T22" s="3">
-        <v>300</v>
       </c>
       <c r="U22" s="3">
         <v>300</v>
       </c>
       <c r="V22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W22" s="3">
         <v>400</v>
       </c>
       <c r="X22" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-53000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-27100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-5000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-1600</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1746,11 +1791,11 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1758,37 +1803,40 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1855,144 +1903,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-51400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-27100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-6100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-4800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-51400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-27100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-6100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-4800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2059,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2074,37 +2134,37 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>7100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>6700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>159000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-300</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>35</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2127,8 +2187,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2195,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,144 +2329,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3">
         <v>1700</v>
       </c>
       <c r="X32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Y32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-51600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>152000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-6100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-4800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2467,149 +2542,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-51600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>152000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-6100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-4800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43434</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43343</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43251</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43159</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43069</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42978</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42886</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42794</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42704</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2634,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2660,76 +2745,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E41" s="3">
         <v>14900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>28400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>41800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>44900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>88800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>97500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>107100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2778,8 +2867,8 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>35</v>
+      <c r="S42" s="3">
+        <v>0</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>35</v>
@@ -2787,85 +2876,91 @@
       <c r="U42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W42" s="3">
         <v>100</v>
-      </c>
-      <c r="W42" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E43" s="3">
         <v>19100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>17400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2873,7 +2968,7 @@
         <v>100</v>
       </c>
       <c r="E44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
         <v>200</v>
@@ -2888,196 +2983,205 @@
         <v>200</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
       </c>
       <c r="L44" s="3">
+        <v>100</v>
+      </c>
+      <c r="M44" s="3">
         <v>1900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2000</v>
-      </c>
-      <c r="O44" s="3">
-        <v>1700</v>
       </c>
       <c r="P44" s="3">
         <v>1700</v>
       </c>
       <c r="Q44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R44" s="3">
         <v>1200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>600</v>
-      </c>
-      <c r="W44" s="3">
-        <v>400</v>
       </c>
       <c r="X44" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E45" s="3">
         <v>2200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>76100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1600</v>
       </c>
       <c r="M45" s="3">
         <v>1600</v>
       </c>
       <c r="N45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O45" s="3">
         <v>1400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E46" s="3">
         <v>36300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>47800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>54700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>50100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>95000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>104300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>112900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>78300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>20800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>27100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>23900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>30300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>24700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E47" s="3">
         <v>400</v>
-      </c>
-      <c r="E47" s="3">
-        <v>200</v>
       </c>
       <c r="F47" s="3">
         <v>200</v>
@@ -3086,194 +3190,203 @@
         <v>200</v>
       </c>
       <c r="H47" s="3">
+        <v>200</v>
+      </c>
+      <c r="I47" s="3">
         <v>3300</v>
-      </c>
-      <c r="I47" s="3">
-        <v>3200</v>
       </c>
       <c r="J47" s="3">
         <v>3200</v>
       </c>
       <c r="K47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L47" s="3">
         <v>2600</v>
-      </c>
-      <c r="L47" s="3">
-        <v>2100</v>
       </c>
       <c r="M47" s="3">
         <v>2100</v>
       </c>
       <c r="N47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O47" s="3">
         <v>2000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1000</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
       <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>1100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>300</v>
       </c>
-      <c r="V47" s="3" t="s">
+      <c r="W47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
-      </c>
-      <c r="X47" s="3" t="s">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E48" s="3">
         <v>6800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>24300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>27100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4800</v>
-      </c>
-      <c r="V48" s="3">
-        <v>4600</v>
       </c>
       <c r="W48" s="3">
         <v>4600</v>
       </c>
       <c r="X48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Y48" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E49" s="3">
         <v>20500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>21000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>21300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>21800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7800</v>
-      </c>
-      <c r="I49" s="3">
-        <v>7700</v>
       </c>
       <c r="J49" s="3">
         <v>7700</v>
       </c>
       <c r="K49" s="3">
+        <v>7700</v>
+      </c>
+      <c r="L49" s="3">
         <v>8200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>28700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>30500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>30800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>31900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>33200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>24600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>26100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>25700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>26200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>25000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>24200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>24600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,8 +3524,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3423,46 +3542,46 @@
         <v>1200</v>
       </c>
       <c r="G52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>300</v>
-      </c>
-      <c r="L52" s="3">
-        <v>700</v>
       </c>
       <c r="M52" s="3">
         <v>700</v>
       </c>
       <c r="N52" s="3">
+        <v>700</v>
+      </c>
+      <c r="O52" s="3">
         <v>800</v>
-      </c>
-      <c r="O52" s="3">
-        <v>400</v>
       </c>
       <c r="P52" s="3">
         <v>400</v>
       </c>
       <c r="Q52" s="3">
+        <v>400</v>
+      </c>
+      <c r="R52" s="3">
         <v>100</v>
-      </c>
-      <c r="R52" s="3">
-        <v>400</v>
       </c>
       <c r="S52" s="3">
         <v>400</v>
       </c>
       <c r="T52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="U52" s="3">
         <v>100</v>
@@ -3476,8 +3595,11 @@
       <c r="X52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,76 +3666,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E54" s="3">
         <v>65200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>75600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>82100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>77700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>110800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>119200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>127200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>92500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>79600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>84600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>84800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>75400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>69300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>47000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>42400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>39900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>37400</v>
-      </c>
-      <c r="U54" s="3">
-        <v>36300</v>
       </c>
       <c r="V54" s="3">
         <v>36300</v>
       </c>
       <c r="W54" s="3">
+        <v>36300</v>
+      </c>
+      <c r="X54" s="3">
         <v>33500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,93 +3793,97 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E57" s="3">
         <v>3100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E58" s="3">
         <v>4400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>400</v>
       </c>
       <c r="I58" s="3">
         <v>400</v>
@@ -3759,40 +3892,40 @@
         <v>400</v>
       </c>
       <c r="K58" s="3">
+        <v>400</v>
+      </c>
+      <c r="L58" s="3">
         <v>800</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1300</v>
       </c>
       <c r="M58" s="3">
         <v>1300</v>
       </c>
       <c r="N58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O58" s="3">
         <v>1200</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1000</v>
       </c>
       <c r="P58" s="3">
         <v>1000</v>
       </c>
       <c r="Q58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R58" s="3">
         <v>900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>3200</v>
       </c>
       <c r="T58" s="3">
         <v>3200</v>
       </c>
       <c r="U58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="V58" s="3">
         <v>2600</v>
-      </c>
-      <c r="V58" s="3">
-        <v>5500</v>
       </c>
       <c r="W58" s="3">
         <v>5500</v>
@@ -3800,280 +3933,295 @@
       <c r="X58" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E59" s="3">
         <v>6100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>24100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>36100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>15000</v>
       </c>
       <c r="N59" s="3">
         <v>15000</v>
       </c>
       <c r="O59" s="3">
+        <v>15000</v>
+      </c>
+      <c r="P59" s="3">
         <v>12300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E60" s="3">
         <v>13600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>19800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>25900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>42400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>24400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>23100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>21800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>16200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>16900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>17600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>16100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>18100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>14500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E61" s="3">
         <v>7300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>10600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>10300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12100</v>
-      </c>
-      <c r="L61" s="3">
-        <v>10300</v>
       </c>
       <c r="M61" s="3">
         <v>10300</v>
       </c>
       <c r="N61" s="3">
+        <v>10300</v>
+      </c>
+      <c r="O61" s="3">
         <v>3400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>7400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4208,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,76 +4430,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E66" s="3">
         <v>22100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>24200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>27600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>25100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>24100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>31000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>37700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>87000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>69100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>68400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>64000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>47100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>39700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>22900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>25700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>26200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>26400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>30600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>21000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4574,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,76 +4812,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-106400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-101400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-91200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-88500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-88300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-36700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-34300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-89400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-83200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-78700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-73500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-62400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-57400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-52300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-49700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-44100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-41300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-39400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-38800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-31800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,76 +5096,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E76" s="3">
         <v>43100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>51400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>54500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>52600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>86700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>88200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>89500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>28400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>29600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>25800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>19500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5238,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43434</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43343</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43251</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43159</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43069</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42978</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42886</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42794</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42704</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-51600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>152000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-6100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-4800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,8 +5414,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5232,34 +5430,34 @@
         <v>500</v>
       </c>
       <c r="G83" s="3">
+        <v>500</v>
+      </c>
+      <c r="H83" s="3">
         <v>400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>800</v>
-      </c>
-      <c r="P83" s="3">
-        <v>600</v>
       </c>
       <c r="Q83" s="3">
         <v>600</v>
@@ -5268,25 +5466,28 @@
         <v>600</v>
       </c>
       <c r="S83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T83" s="3">
         <v>700</v>
       </c>
       <c r="U83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="V83" s="3">
         <v>600</v>
       </c>
       <c r="W83" s="3">
+        <v>600</v>
+      </c>
+      <c r="X83" s="3">
         <v>900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +5838,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-45200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-13700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,76 +5938,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-300</v>
       </c>
       <c r="I91" s="3">
         <v>-300</v>
       </c>
       <c r="J91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-200</v>
       </c>
       <c r="U91" s="3">
         <v>-200</v>
       </c>
       <c r="V91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W91" s="3">
         <v>-500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,76 +6149,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>103000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-500</v>
       </c>
       <c r="U94" s="3">
         <v>-500</v>
       </c>
       <c r="V94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W94" s="3">
         <v>-400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6249,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6085,8 +6318,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,76 +6531,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>19400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>7600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6366,131 +6614,137 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-43700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>95600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>12300</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>700</v>
       </c>
       <c r="R102" s="3">
         <v>700</v>
       </c>
       <c r="S102" s="3">
+        <v>700</v>
+      </c>
+      <c r="T102" s="3">
         <v>2800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORGS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORGS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>ORGS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,196 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43434</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43343</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43251</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43159</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43069</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42978</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42886</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42794</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42704</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F8" s="3">
         <v>6900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>8700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>10500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>9400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1900</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1200</v>
       </c>
       <c r="N8" s="3">
         <v>1100</v>
       </c>
       <c r="O8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>5800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>6200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4000</v>
-      </c>
-      <c r="S8" s="3">
-        <v>2600</v>
-      </c>
-      <c r="T8" s="3">
-        <v>3400</v>
       </c>
       <c r="U8" s="3">
         <v>2600</v>
       </c>
       <c r="V8" s="3">
+        <v>3400</v>
+      </c>
+      <c r="W8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="X8" s="3">
         <v>2300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>35</v>
+      <c r="D9" s="3">
+        <v>400</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>35</v>
@@ -851,67 +865,73 @@
       <c r="G9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>35</v>
+      <c r="H9" s="3">
+        <v>400</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>6400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>5900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>4600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>3400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>2300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>3800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>2400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
+      <c r="D10" s="3">
+        <v>6800</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>35</v>
@@ -922,62 +942,68 @@
       <c r="G10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>35</v>
+      <c r="H10" s="3">
+        <v>10100</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="3">
         <v>1500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-1500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-5200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-4800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-4200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>700</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
         <v>-1900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>-500</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,79 +1029,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F12" s="3">
         <v>10600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>10000</v>
       </c>
-      <c r="F12" s="3">
-        <v>9600</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>11700</v>
+      </c>
+      <c r="I12" s="3">
         <v>6100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>50100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>7100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>24800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>5100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>3000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>2800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>2600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>5800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>3900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>2400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>1700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>1600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1145,22 +1179,28 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1900</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>35</v>
@@ -1186,14 +1226,14 @@
       <c r="O14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P14" s="3">
-        <v>700</v>
+      <c r="P14" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>35</v>
+      <c r="R14" s="3">
+        <v>700</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>35</v>
@@ -1207,17 +1247,23 @@
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1228,46 +1274,46 @@
         <v>500</v>
       </c>
       <c r="F15" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G15" s="3">
         <v>500</v>
       </c>
       <c r="H15" s="3">
+        <v>500</v>
+      </c>
+      <c r="I15" s="3">
+        <v>500</v>
+      </c>
+      <c r="J15" s="3">
         <v>400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>600</v>
-      </c>
-      <c r="R15" s="3">
-        <v>400</v>
-      </c>
-      <c r="S15" s="3">
-        <v>400</v>
       </c>
       <c r="T15" s="3">
         <v>400</v>
@@ -1287,8 +1333,14 @@
       <c r="Y15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1363,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F17" s="3">
         <v>13800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>18200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>12900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>9300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>55200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>11100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>28500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>8600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>6000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>8700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>13800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>6900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>6800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>5900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>4200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>6000</v>
-      </c>
-      <c r="V17" s="3">
-        <v>4900</v>
-      </c>
-      <c r="W17" s="3">
-        <v>5400</v>
       </c>
       <c r="X17" s="3">
         <v>4900</v>
       </c>
       <c r="Y17" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>4900</v>
+      </c>
+      <c r="AA17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-9500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-52900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-9400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-26800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-6700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-4800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-4900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-8300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-2800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-3300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-3400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-2600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-3500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1480,150 +1546,164 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F20" s="3">
         <v>2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-1600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>2100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-1700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-9400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-52300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-9100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-26500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-6100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-3600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-3300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-3900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-7400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-2800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-2000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-4600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1631,10 +1711,10 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
@@ -1643,129 +1723,141 @@
         <v>300</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
       </c>
       <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
+        <v>300</v>
+      </c>
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>200</v>
-      </c>
-      <c r="S22" s="3">
-        <v>2500</v>
       </c>
       <c r="T22" s="3">
         <v>200</v>
       </c>
       <c r="U22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V22" s="3">
+        <v>200</v>
+      </c>
+      <c r="W22" s="3">
         <v>300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-5000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-10100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-53000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-9600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-27100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-7100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-5100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-4200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-4900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-8400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-5900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-2700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-2900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-5600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1773,70 +1865,76 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1600</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>-300</v>
       </c>
       <c r="S24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U24" s="3">
         <v>-400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-1800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1906,150 +2004,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-10200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-51400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-9600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-27100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-7000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-5000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-4200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-4900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-8300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-4300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-5500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-2000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-2500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-6100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-4800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-10200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-51400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-9600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-27100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-7000</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-4200</v>
       </c>
       <c r="N27" s="3">
         <v>-4900</v>
       </c>
       <c r="O27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-8300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-5100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-5600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-2500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-6100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-4800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2119,13 +2235,19 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2137,41 +2259,41 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>7100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>6700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>159000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-1200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-300</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
@@ -2190,8 +2312,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2261,8 +2389,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2332,150 +2466,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>1600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-2100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>1700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>1700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-10200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-51600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-20400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>152000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-6100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-5200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-8300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-5100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-5600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-2500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-6100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-4800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2545,155 +2697,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-10200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-51600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-20400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>152000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-6100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-5200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-8300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-5100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-5600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-2500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-6100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-4800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43434</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43343</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43251</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43159</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43069</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42978</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42886</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42794</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42704</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2719,8 +2889,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2746,79 +2918,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F41" s="3">
         <v>5500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>14900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>28400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>41800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>44900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>88800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>97500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>107100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>10100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>16100</v>
-      </c>
-      <c r="O41" s="3">
-        <v>14400</v>
       </c>
       <c r="P41" s="3">
         <v>16100</v>
       </c>
       <c r="Q41" s="3">
+        <v>14400</v>
+      </c>
+      <c r="R41" s="3">
+        <v>16100</v>
+      </c>
+      <c r="S41" s="3">
         <v>16700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>4500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>4200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>3500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>3900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2870,97 +3050,109 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>35</v>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W42" s="3">
-        <v>100</v>
+      <c r="W42" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y42" s="3" t="s">
+      <c r="Y42" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z42" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>20800</v>
+      </c>
+      <c r="F43" s="3">
         <v>18500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>19100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>17400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>11500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>3300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>4300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>4200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>7300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>7100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>6200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>11200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>4400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>3400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>2200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>2300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>3100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>2100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2971,10 +3163,10 @@
         <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
@@ -2986,407 +3178,443 @@
         <v>200</v>
       </c>
       <c r="K44" s="3">
+        <v>200</v>
+      </c>
+      <c r="L44" s="3">
+        <v>200</v>
+      </c>
+      <c r="M44" s="3">
         <v>100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>2200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>76100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>4600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>1300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>24000</v>
+      </c>
+      <c r="F46" s="3">
         <v>25800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>36300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>47800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>54700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>50100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>95000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>104300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>112900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>78300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>20800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>27100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>23900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>30300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>24700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>13700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>8600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>7300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>5700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>6100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>7400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>4200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F47" s="3">
         <v>1400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>400</v>
-      </c>
-      <c r="F47" s="3">
-        <v>200</v>
-      </c>
-      <c r="G47" s="3">
-        <v>200</v>
       </c>
       <c r="H47" s="3">
         <v>200</v>
       </c>
       <c r="I47" s="3">
+        <v>200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>200</v>
+      </c>
+      <c r="K47" s="3">
         <v>3300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>3200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>3200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>2100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>2100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1000</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
         <v>1100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>1700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>1300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>300</v>
-      </c>
-      <c r="W47" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X47" s="3">
-        <v>0</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F48" s="3">
         <v>11300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>6800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>5400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>4500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>27500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>27300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>24300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>27100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>11900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>11100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>7500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>5600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>5100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>5000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>4800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>4600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>4600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F49" s="3">
         <v>20200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>20500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>21000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>21300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>21800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>7800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>7700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>7700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>8200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>28700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>30500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>30800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>31900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>33200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>24600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>26100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>25700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>26200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>25000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>24200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>24600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3684,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,16 +3761,22 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F52" s="3">
         <v>1200</v>
@@ -3545,7 +3785,7 @@
         <v>1200</v>
       </c>
       <c r="H52" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I52" s="3">
         <v>1200</v>
@@ -3554,40 +3794,40 @@
         <v>1100</v>
       </c>
       <c r="K52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>400</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>400</v>
-      </c>
-      <c r="R52" s="3">
-        <v>100</v>
       </c>
       <c r="S52" s="3">
         <v>400</v>
       </c>
       <c r="T52" s="3">
+        <v>100</v>
+      </c>
+      <c r="U52" s="3">
         <v>400</v>
       </c>
-      <c r="U52" s="3">
-        <v>100</v>
-      </c>
       <c r="V52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="W52" s="3">
         <v>100</v>
@@ -3598,8 +3838,14 @@
       <c r="Y52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,79 +3915,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>58500</v>
+      </c>
+      <c r="F54" s="3">
         <v>59800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>65200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>75600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>82100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>77700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>110800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>119200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>127200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>92500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>79600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>84600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>84800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>75400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>69300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>47000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>42400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>39900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>37400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>36300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>36300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>33500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +4025,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,8 +4054,10 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3803,425 +4065,461 @@
         <v>5200</v>
       </c>
       <c r="E57" s="3">
-        <v>3100</v>
+        <v>6900</v>
       </c>
       <c r="F57" s="3">
         <v>5200</v>
       </c>
       <c r="G57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I57" s="3">
         <v>10300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>8600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>5500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>7700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>6800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>5500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>3800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>3900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>3700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>3500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>4100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>4600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F58" s="3">
         <v>5900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>4400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>6700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>4300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>4100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>400</v>
       </c>
       <c r="K58" s="3">
         <v>400</v>
       </c>
       <c r="L58" s="3">
+        <v>400</v>
+      </c>
+      <c r="M58" s="3">
+        <v>400</v>
+      </c>
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>2000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>3200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>3200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>2600</v>
-      </c>
-      <c r="W58" s="3">
-        <v>5500</v>
-      </c>
-      <c r="X58" s="3">
-        <v>5500</v>
       </c>
       <c r="Y58" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F59" s="3">
         <v>4200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>6200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>8400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>17700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>24100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>36100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>15400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>15000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>15000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>12300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>11000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>9700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>10400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>9800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>10700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>10000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>8600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>4500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F60" s="3">
         <v>15400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>13600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>18200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>18900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>16300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>12400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>19800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>25900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>42400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>24400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>23100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>21800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>17100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>15000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>13000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>16200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>16900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>17600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>16100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>18100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>14500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F61" s="3">
         <v>4900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>7300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>4700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>7100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>7300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>10600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>10300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>10900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>12100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>10300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>10300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>4500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>4800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>5100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>5000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>4400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>800</v>
+      </c>
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>9700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>10100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>14000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>3900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>3800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>5200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>7400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>4000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4589,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4362,8 +4666,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,79 +4743,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>23800</v>
+      </c>
+      <c r="F66" s="3">
         <v>21400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>22100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>24200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>27600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>25100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>24100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>31000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>37700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>87000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>69100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>68400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>64000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>47100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>39700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>21200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>22900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>25700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>26200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>26400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>30600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>21000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4853,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4926,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +5003,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4744,8 +5080,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,79 +5157,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-115800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-110400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-106400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-101400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-91200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-88500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-88300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-36700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-34300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-13900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-89400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-83200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-78700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-73500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-62400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-57400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-52300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-49700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-44100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-41300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-39400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-38800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-31800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5311,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5388,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,79 +5465,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>34700</v>
+      </c>
+      <c r="F76" s="3">
         <v>38500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>43100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>51400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>54500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>52600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>86700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>88200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>89500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>5500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>10500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>16100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>20800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>28400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>29600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>25800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>19500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>14100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>11300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>9900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>5700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>12500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,155 +5619,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43434</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43343</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43251</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43159</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43069</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42978</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42886</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42794</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42704</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-10200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-51600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-20400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>152000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-6100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-5200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-8300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-5100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-5600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-2500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-6100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-4800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,8 +5811,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5433,22 +5831,22 @@
         <v>500</v>
       </c>
       <c r="H83" s="3">
+        <v>500</v>
+      </c>
+      <c r="I83" s="3">
+        <v>500</v>
+      </c>
+      <c r="J83" s="3">
         <v>400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>900</v>
       </c>
       <c r="N83" s="3">
         <v>1000</v>
@@ -5457,37 +5855,43 @@
         <v>900</v>
       </c>
       <c r="P83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>900</v>
+      </c>
+      <c r="R83" s="3">
         <v>800</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>600</v>
-      </c>
-      <c r="R83" s="3">
-        <v>600</v>
       </c>
       <c r="S83" s="3">
         <v>600</v>
       </c>
       <c r="T83" s="3">
+        <v>600</v>
+      </c>
+      <c r="U83" s="3">
+        <v>600</v>
+      </c>
+      <c r="V83" s="3">
         <v>700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5961,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +6038,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +6115,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +6192,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,79 +6269,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-8400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-11500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-4500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-45200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-10000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-9100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-13700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-3700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-4500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-5600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-4800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-2100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-1700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-2200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,79 +6379,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-6000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-2100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6529,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,79 +6606,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-5700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-5100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>1700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>1100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>103000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-6500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-2100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-2000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-500</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-500</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-400</v>
       </c>
       <c r="X94" s="3">
         <v>-500</v>
       </c>
       <c r="Y94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,8 +6716,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6321,8 +6789,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6866,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6943,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,79 +7020,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>6400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>10400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>7200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>6600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>4500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>19400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>7600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>3500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>4000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>2000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>3000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>1800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6614,137 +7112,149 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>1100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-100</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-9400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-13500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-13400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-3300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-43700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-8900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-9600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>95600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-5900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>12300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>2800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-3200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>3000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORGS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORGS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>ORGS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,206 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43434</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43343</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43251</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43159</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43069</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42978</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42886</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42794</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42704</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7200</v>
+        <v>8000</v>
       </c>
       <c r="E8" s="3">
         <v>7200</v>
       </c>
       <c r="F8" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G8" s="3">
         <v>6900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2300</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1700</v>
       </c>
       <c r="L8" s="3">
         <v>1700</v>
       </c>
       <c r="M8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N8" s="3">
         <v>1900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2300</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>1900</v>
       </c>
       <c r="Z8" s="3">
         <v>1900</v>
       </c>
       <c r="AA8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AB8" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>35</v>
@@ -865,11 +872,11 @@
       <c r="G9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="3">
         <v>400</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>35</v>
@@ -877,64 +884,67 @@
       <c r="K9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="3">
-        <v>200</v>
+      <c r="L9" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="M9" s="3">
         <v>200</v>
       </c>
       <c r="N9" s="3">
+        <v>200</v>
+      </c>
+      <c r="O9" s="3">
         <v>2600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1600</v>
-      </c>
-      <c r="V9" s="3">
-        <v>1900</v>
       </c>
       <c r="W9" s="3">
         <v>1900</v>
       </c>
       <c r="X9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Y9" s="3">
         <v>2300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3">
         <v>6800</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>35</v>
@@ -942,11 +952,11 @@
       <c r="G10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="3">
         <v>10100</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>35</v>
@@ -954,56 +964,59 @@
       <c r="K10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="3">
         <v>1500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-1500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-5200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-4200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>700</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
       <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-500</v>
       </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1031,85 +1044,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E12" s="3">
         <v>3900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>10600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>10000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>11700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>50100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>24800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1185,25 +1202,28 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1900</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>35</v>
@@ -1232,11 +1252,11 @@
       <c r="Q14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="3">
         <v>700</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>35</v>
@@ -1253,8 +1273,8 @@
       <c r="X14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
@@ -1262,8 +1282,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1271,13 +1294,13 @@
         <v>200</v>
       </c>
       <c r="E15" s="3">
+        <v>200</v>
+      </c>
+      <c r="F15" s="3">
         <v>500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>500</v>
       </c>
       <c r="H15" s="3">
         <v>500</v>
@@ -1286,37 +1309,37 @@
         <v>500</v>
       </c>
       <c r="J15" s="3">
+        <v>500</v>
+      </c>
+      <c r="K15" s="3">
         <v>400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>400</v>
-      </c>
-      <c r="N15" s="3">
-        <v>300</v>
       </c>
       <c r="O15" s="3">
         <v>300</v>
       </c>
       <c r="P15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q15" s="3">
         <v>200</v>
       </c>
       <c r="R15" s="3">
+        <v>200</v>
+      </c>
+      <c r="S15" s="3">
         <v>700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>600</v>
-      </c>
-      <c r="T15" s="3">
-        <v>400</v>
       </c>
       <c r="U15" s="3">
         <v>400</v>
@@ -1339,8 +1362,11 @@
       <c r="AA15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1365,162 +1391,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="3">
         <v>11900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>55200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>28500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-52900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-26800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1548,176 +1581,183 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="3">
         <v>-1700</v>
       </c>
       <c r="AA20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-9400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-52300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-26500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-7400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-6400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-4600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
@@ -1729,135 +1769,141 @@
         <v>300</v>
       </c>
       <c r="K22" s="3">
+        <v>300</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>200</v>
-      </c>
-      <c r="W22" s="3">
-        <v>300</v>
       </c>
       <c r="X22" s="3">
         <v>300</v>
       </c>
       <c r="Y22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Z22" s="3">
         <v>400</v>
       </c>
       <c r="AA22" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-53000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-27100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1871,20 +1917,20 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1600</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1892,11 +1938,11 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1904,37 +1950,40 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2010,162 +2059,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-51400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-27100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-6100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-4800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-51400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-27100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-6100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-4800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2241,16 +2299,19 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2265,37 +2326,37 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>7100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>6700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>159000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-1200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-300</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>35</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
@@ -2318,8 +2379,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2395,8 +2459,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2472,162 +2539,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="3">
         <v>1700</v>
       </c>
       <c r="AA32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AB32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-51600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-20400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>152000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-6100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-4800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2703,167 +2779,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-51600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-20400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>152000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-6100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-4800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43434</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43343</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43251</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43159</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43069</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42978</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42886</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42794</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42704</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2891,8 +2976,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2920,85 +3006,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>28400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>41800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>44900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>88800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>97500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>107100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>16100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>16700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3056,8 +3146,8 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>35</v>
+      <c r="V42" s="3">
+        <v>0</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>35</v>
@@ -3065,94 +3155,100 @@
       <c r="X42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z42" s="3">
         <v>100</v>
-      </c>
-      <c r="Z42" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E43" s="3">
         <v>21800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>20800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>18500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>19100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>17400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>11200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3169,7 +3265,7 @@
         <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
@@ -3184,223 +3280,232 @@
         <v>200</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N44" s="3">
         <v>100</v>
       </c>
       <c r="O44" s="3">
+        <v>100</v>
+      </c>
+      <c r="P44" s="3">
         <v>1900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2000</v>
-      </c>
-      <c r="R44" s="3">
-        <v>1700</v>
       </c>
       <c r="S44" s="3">
         <v>1700</v>
       </c>
       <c r="T44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U44" s="3">
         <v>1200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>600</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>400</v>
       </c>
       <c r="AA44" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>76100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1600</v>
       </c>
       <c r="P45" s="3">
         <v>1600</v>
       </c>
       <c r="Q45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R45" s="3">
         <v>1400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E46" s="3">
         <v>25500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>24000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>25800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>36300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>47800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>54700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>50100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>95000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>104300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>112900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>78300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>20800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>27100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>23900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>30300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>24700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>13700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>1800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>400</v>
-      </c>
-      <c r="H47" s="3">
-        <v>200</v>
       </c>
       <c r="I47" s="3">
         <v>200</v>
@@ -3409,212 +3514,221 @@
         <v>200</v>
       </c>
       <c r="K47" s="3">
+        <v>200</v>
+      </c>
+      <c r="L47" s="3">
         <v>3300</v>
-      </c>
-      <c r="L47" s="3">
-        <v>3200</v>
       </c>
       <c r="M47" s="3">
         <v>3200</v>
       </c>
       <c r="N47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O47" s="3">
         <v>2600</v>
-      </c>
-      <c r="O47" s="3">
-        <v>2100</v>
       </c>
       <c r="P47" s="3">
         <v>2100</v>
       </c>
       <c r="Q47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R47" s="3">
         <v>2000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1000</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
       <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
         <v>1100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>300</v>
       </c>
-      <c r="Y47" s="3" t="s">
+      <c r="Z47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Z47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="3" t="s">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E48" s="3">
         <v>15100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>27500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>27300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>24300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>27100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>11900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>11100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4800</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>4600</v>
       </c>
       <c r="Z48" s="3">
         <v>4600</v>
       </c>
       <c r="AA48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="AB48" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E49" s="3">
         <v>19400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>19900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>20200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>20500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>21000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>21300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>21800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7800</v>
-      </c>
-      <c r="L49" s="3">
-        <v>7700</v>
       </c>
       <c r="M49" s="3">
         <v>7700</v>
       </c>
       <c r="N49" s="3">
+        <v>7700</v>
+      </c>
+      <c r="O49" s="3">
         <v>8200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>28700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>30500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>30800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>31900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>33200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>24600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>26100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>25700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>26200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>25000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>24200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>24600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3690,8 +3804,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3767,19 +3884,22 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E52" s="3">
         <v>1100</v>
       </c>
       <c r="F52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G52" s="3">
         <v>1200</v>
@@ -3791,46 +3911,46 @@
         <v>1200</v>
       </c>
       <c r="J52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>300</v>
-      </c>
-      <c r="O52" s="3">
-        <v>700</v>
       </c>
       <c r="P52" s="3">
         <v>700</v>
       </c>
       <c r="Q52" s="3">
+        <v>700</v>
+      </c>
+      <c r="R52" s="3">
         <v>800</v>
-      </c>
-      <c r="R52" s="3">
-        <v>400</v>
       </c>
       <c r="S52" s="3">
         <v>400</v>
       </c>
       <c r="T52" s="3">
+        <v>400</v>
+      </c>
+      <c r="U52" s="3">
         <v>100</v>
-      </c>
-      <c r="U52" s="3">
-        <v>400</v>
       </c>
       <c r="V52" s="3">
         <v>400</v>
       </c>
       <c r="W52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="X52" s="3">
         <v>100</v>
@@ -3844,8 +3964,11 @@
       <c r="AA52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3921,85 +4044,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>70700</v>
+      </c>
+      <c r="E54" s="3">
         <v>62800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>58500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>59800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>65200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>75600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>82100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>77700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>110800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>119200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>127200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>92500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>79600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>84600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>84800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>75400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>69300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>47000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>42400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>39900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>37400</v>
-      </c>
-      <c r="X54" s="3">
-        <v>36300</v>
       </c>
       <c r="Y54" s="3">
         <v>36300</v>
       </c>
       <c r="Z54" s="3">
+        <v>36300</v>
+      </c>
+      <c r="AA54" s="3">
         <v>33500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4027,8 +4156,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4056,111 +4186,115 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E57" s="3">
         <v>5200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E58" s="3">
         <v>5600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>400</v>
       </c>
       <c r="L58" s="3">
         <v>400</v>
@@ -4169,40 +4303,40 @@
         <v>400</v>
       </c>
       <c r="N58" s="3">
+        <v>400</v>
+      </c>
+      <c r="O58" s="3">
         <v>800</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1300</v>
       </c>
       <c r="P58" s="3">
         <v>1300</v>
       </c>
       <c r="Q58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R58" s="3">
         <v>1200</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1000</v>
       </c>
       <c r="S58" s="3">
         <v>1000</v>
       </c>
       <c r="T58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U58" s="3">
         <v>900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2000</v>
-      </c>
-      <c r="V58" s="3">
-        <v>3200</v>
       </c>
       <c r="W58" s="3">
         <v>3200</v>
       </c>
       <c r="X58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Y58" s="3">
         <v>2600</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>5500</v>
       </c>
       <c r="Z58" s="3">
         <v>5500</v>
@@ -4210,316 +4344,331 @@
       <c r="AA58" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E59" s="3">
         <v>5500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>24100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>36100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>15000</v>
       </c>
       <c r="Q59" s="3">
         <v>15000</v>
       </c>
       <c r="R59" s="3">
+        <v>15000</v>
+      </c>
+      <c r="S59" s="3">
         <v>12300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>9800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>10700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>10000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>8600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E60" s="3">
         <v>16200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>16300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>25900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>42400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>24400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>23100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>21800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>17100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>13000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>16200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>16900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>17600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>16100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>18100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>14500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E61" s="3">
         <v>14000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12100</v>
-      </c>
-      <c r="O61" s="3">
-        <v>10300</v>
       </c>
       <c r="P61" s="3">
         <v>10300</v>
       </c>
       <c r="Q61" s="3">
+        <v>10300</v>
+      </c>
+      <c r="R61" s="3">
         <v>3400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>5200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>7400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4595,8 +4744,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4672,8 +4824,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4749,85 +4904,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E66" s="3">
         <v>31000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>24200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>27600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>25100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>24100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>37700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>87000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>69100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>68400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>64000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>47100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>39700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>21200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>22900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>25700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>26200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>26400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>30600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>21000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4855,8 +5016,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4932,8 +5094,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5009,8 +5174,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5086,8 +5254,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5163,85 +5334,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-117200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-115800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-110400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-106400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-101400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-91200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-88500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-88300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-36700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-34300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-89400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-83200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-78700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-73500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-62400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-57400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-52300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-49700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-44100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-41300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-39400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-38800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-31800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5317,8 +5494,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5394,8 +5574,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5471,85 +5654,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E76" s="3">
         <v>31800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>34700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>38500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>43100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>51400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>54500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>52600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>86700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>88200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>89500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>28400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>29600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>25800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>19500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>5700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>12500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5625,167 +5814,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43434</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43343</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43251</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43159</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43069</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42978</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42886</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42794</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42704</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-51600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-20400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>152000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-6100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-4800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5813,8 +6011,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5837,34 +6036,34 @@
         <v>500</v>
       </c>
       <c r="J83" s="3">
+        <v>500</v>
+      </c>
+      <c r="K83" s="3">
         <v>400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>800</v>
-      </c>
-      <c r="S83" s="3">
-        <v>600</v>
       </c>
       <c r="T83" s="3">
         <v>600</v>
@@ -5873,25 +6072,28 @@
         <v>600</v>
       </c>
       <c r="V83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="W83" s="3">
         <v>700</v>
       </c>
       <c r="X83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Y83" s="3">
         <v>600</v>
       </c>
       <c r="Z83" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA83" s="3">
         <v>900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5967,8 +6169,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6044,8 +6249,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6121,8 +6329,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6198,8 +6409,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6275,85 +6489,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-11500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-45200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-13700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6381,85 +6601,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-300</v>
       </c>
       <c r="L91" s="3">
         <v>-300</v>
       </c>
       <c r="M91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-300</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-200</v>
       </c>
       <c r="X91" s="3">
         <v>-200</v>
       </c>
       <c r="Y91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6535,8 +6759,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6612,85 +6839,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>103000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-500</v>
       </c>
       <c r="X94" s="3">
         <v>-500</v>
       </c>
       <c r="Y94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6718,8 +6951,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6795,8 +7029,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6872,8 +7109,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6949,8 +7189,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7026,235 +7269,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E100" s="3">
         <v>10900</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>10400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>7200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>19400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>7600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>3000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-300</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>100</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
       <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
         <v>-100</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E102" s="3">
         <v>1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-43700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>95600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>12300</v>
-      </c>
-      <c r="T102" s="3">
-        <v>700</v>
       </c>
       <c r="U102" s="3">
         <v>700</v>
       </c>
       <c r="V102" s="3">
+        <v>700</v>
+      </c>
+      <c r="W102" s="3">
         <v>2800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>3000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORGS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORGS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>ORGS</t>
   </si>
@@ -860,8 +860,8 @@
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>35</v>
+      <c r="D9" s="3">
+        <v>400</v>
       </c>
       <c r="E9" s="3">
         <v>400</v>
@@ -940,8 +940,8 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
+      <c r="D10" s="3">
+        <v>7600</v>
       </c>
       <c r="E10" s="3">
         <v>6800</v>
@@ -1051,7 +1051,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4700</v>
+        <v>1100</v>
       </c>
       <c r="E12" s="3">
         <v>3900</v>
@@ -1397,8 +1397,8 @@
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>35</v>
+      <c r="D17" s="3">
+        <v>8000</v>
       </c>
       <c r="E17" s="3">
         <v>11900</v>
@@ -1477,8 +1477,8 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>35</v>
+      <c r="D18" s="3">
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>-4700</v>
@@ -1587,8 +1587,8 @@
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>35</v>
+      <c r="D20" s="3">
+        <v>-800</v>
       </c>
       <c r="E20" s="3">
         <v>-500</v>
@@ -1667,8 +1667,8 @@
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>35</v>
+      <c r="D21" s="3">
+        <v>-300</v>
       </c>
       <c r="E21" s="3">
         <v>-4700</v>
@@ -1747,8 +1747,8 @@
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>35</v>
+      <c r="D22" s="3">
+        <v>600</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -2067,8 +2067,8 @@
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>35</v>
+      <c r="D26" s="3">
+        <v>-1400</v>
       </c>
       <c r="E26" s="3">
         <v>-5500</v>
@@ -2147,8 +2147,8 @@
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>35</v>
+      <c r="D27" s="3">
+        <v>-1400</v>
       </c>
       <c r="E27" s="3">
         <v>-5400</v>
@@ -2547,8 +2547,8 @@
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>35</v>
+      <c r="D32" s="3">
+        <v>800</v>
       </c>
       <c r="E32" s="3">
         <v>500</v>
@@ -2627,8 +2627,8 @@
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>35</v>
+      <c r="D33" s="3">
+        <v>-1400</v>
       </c>
       <c r="E33" s="3">
         <v>-5400</v>
@@ -2787,8 +2787,8 @@
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>35</v>
+      <c r="D35" s="3">
+        <v>-1400</v>
       </c>
       <c r="E35" s="3">
         <v>-5400</v>
@@ -3493,7 +3493,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E47" s="3">
         <v>1800</v>
@@ -4593,7 +4593,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="E62" s="3">
         <v>700</v>
@@ -5907,8 +5907,8 @@
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>35</v>
+      <c r="D81" s="3">
+        <v>-1400</v>
       </c>
       <c r="E81" s="3">
         <v>-5400</v>
@@ -7437,8 +7437,8 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>35</v>
+      <c r="D102" s="3">
+        <v>1700</v>
       </c>
       <c r="E102" s="3">
         <v>1100</v>

--- a/AAII_Financials/Quarterly/ORGS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORGS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>ORGS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,358 +665,383 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43434</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43343</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43251</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43159</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43069</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42978</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42886</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42794</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42704</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F8" s="3">
         <v>8000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>7200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>7200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>6900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>8700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>10500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>9400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1900</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1100</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1200</v>
       </c>
       <c r="Q8" s="3">
         <v>1100</v>
       </c>
       <c r="R8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T8" s="3">
         <v>400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>5800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>6200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>4000</v>
-      </c>
-      <c r="V8" s="3">
-        <v>2600</v>
-      </c>
-      <c r="W8" s="3">
-        <v>3400</v>
       </c>
       <c r="X8" s="3">
         <v>2600</v>
       </c>
       <c r="Y8" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="AA8" s="3">
         <v>2300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>1900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>1900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>500</v>
+      </c>
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="3">
-        <v>400</v>
+      <c r="I9" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>35</v>
+      <c r="K9" s="3">
+        <v>400</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>6400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>5900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>4600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>3500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>3400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>2200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>2300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>3800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>2400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F10" s="3">
         <v>7600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>6800</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="3">
-        <v>10100</v>
+      <c r="I10" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>35</v>
+      <c r="K10" s="3">
+        <v>10100</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="3">
         <v>1500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-1500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>-4800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>-4200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>2300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>2800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>700</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>-500</v>
       </c>
-      <c r="AB10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1045,88 +1070,96 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F12" s="3">
         <v>1100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>3900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>6600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>10600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>10000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>11700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>6100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>50100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>7100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>24800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>5100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>3000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>2800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>2600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>5800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>3900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>2400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>1400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>1700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>1600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>500</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1205,31 +1238,37 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1900</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>35</v>
@@ -1255,14 +1294,14 @@
       <c r="R14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S14" s="3">
-        <v>700</v>
+      <c r="S14" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>35</v>
+      <c r="U14" s="3">
+        <v>700</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>35</v>
@@ -1276,28 +1315,34 @@
       <c r="Y14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
       </c>
       <c r="F15" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G15" s="3">
         <v>200</v>
@@ -1306,46 +1351,46 @@
         <v>500</v>
       </c>
       <c r="I15" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="J15" s="3">
         <v>500</v>
       </c>
       <c r="K15" s="3">
+        <v>500</v>
+      </c>
+      <c r="L15" s="3">
+        <v>500</v>
+      </c>
+      <c r="M15" s="3">
         <v>400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>600</v>
-      </c>
-      <c r="U15" s="3">
-        <v>400</v>
-      </c>
-      <c r="V15" s="3">
-        <v>400</v>
       </c>
       <c r="W15" s="3">
         <v>400</v>
@@ -1365,8 +1410,14 @@
       <c r="AB15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1392,168 +1443,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F17" s="3">
         <v>8000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>11900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>10400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>13800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>18200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>12900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>9300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>55200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>11100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>28500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>8600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>6000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>8700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>13800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>6900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>6800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>5900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>4200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>6000</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>4900</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>5400</v>
       </c>
       <c r="AA17" s="3">
         <v>4900</v>
       </c>
       <c r="AB17" s="3">
+        <v>5400</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>4900</v>
+      </c>
+      <c r="AD17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-3500</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-4700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-6900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-9500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-52900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-9400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-26800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-6700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-4800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-4900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-8300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-8000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-2800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-3300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1582,188 +1647,202 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-1100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-1600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>2100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-4700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-4300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-9400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-52300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-9100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-26500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-6100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-3600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-3900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-7400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-6400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-2800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-1700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-4600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-3700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>900</v>
+      </c>
+      <c r="F22" s="3">
         <v>600</v>
-      </c>
-      <c r="E22" s="3">
-        <v>200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
       </c>
       <c r="H22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
@@ -1772,146 +1851,158 @@
         <v>300</v>
       </c>
       <c r="L22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M22" s="3">
         <v>300</v>
       </c>
       <c r="N22" s="3">
+        <v>200</v>
+      </c>
+      <c r="O22" s="3">
+        <v>300</v>
+      </c>
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>500</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>100</v>
-      </c>
-      <c r="U22" s="3">
-        <v>200</v>
-      </c>
-      <c r="V22" s="3">
-        <v>2500</v>
       </c>
       <c r="W22" s="3">
         <v>200</v>
       </c>
       <c r="X22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z22" s="3">
         <v>300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-5500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-5000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-10100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-53000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-9600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-27100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-7100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-5100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-4900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-8400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-7200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-2800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-5900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-2700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-5600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-5000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1920,70 +2011,76 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-1600</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="T24" s="3">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="U24" s="3">
         <v>-300</v>
       </c>
       <c r="V24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="W24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X24" s="3">
         <v>-400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-1800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>-400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>-200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2062,168 +2159,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-5500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-4000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-5000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-10200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-51400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-9600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-27100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-7000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-5000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-4900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-8300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-6900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-4300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-2500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-5500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-6100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-4800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-5400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-4000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-5000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-10200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-51400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-9600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-27100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-7000</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-4200</v>
       </c>
       <c r="Q27" s="3">
         <v>-4900</v>
       </c>
       <c r="R27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="T27" s="3">
         <v>-8300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-5000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-5100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-5600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-6100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-4800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2302,8 +2417,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2313,11 +2434,11 @@
       <c r="E29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -2329,41 +2450,41 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>7100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>6700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>159000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-1200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>-300</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
@@ -2382,8 +2503,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2462,8 +2589,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2542,168 +2675,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>1100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>1600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>1700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>1700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-5400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-5000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-10200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-51600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-20400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>152000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-6100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-5200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-8300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-5000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-5100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-5600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-6100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-4800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2782,173 +2933,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-5400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-5000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-10200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-51600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-20400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>152000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-6100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-5200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-8300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-5000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-5100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-5600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-6100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-4800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43434</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43343</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43251</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43159</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43069</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42978</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42886</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42794</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42704</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2977,8 +3146,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3007,88 +3178,96 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F41" s="3">
         <v>3000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>5500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>14900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>28400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>41800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>44900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>88800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>97500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>107100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>10100</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>16100</v>
-      </c>
-      <c r="R41" s="3">
-        <v>14400</v>
       </c>
       <c r="S41" s="3">
         <v>16100</v>
       </c>
       <c r="T41" s="3">
+        <v>14400</v>
+      </c>
+      <c r="U41" s="3">
+        <v>16100</v>
+      </c>
+      <c r="V41" s="3">
         <v>16700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>4500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>4200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>3500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>3900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3149,106 +3328,118 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X42" s="3" t="s">
-        <v>35</v>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
       </c>
       <c r="Y42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Z42" s="3">
-        <v>100</v>
+      <c r="Z42" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AB42" s="3" t="s">
+      <c r="AB42" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC42" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>38900</v>
+      </c>
+      <c r="F43" s="3">
         <v>26400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>21800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>20800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>18500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>19100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>17400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>11500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>4300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>4200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>3100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>7300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>7100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>6200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>11200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>4400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>3400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>2600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>2200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>2300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>3100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>1500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>2100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3268,10 +3459,10 @@
         <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
@@ -3283,452 +3474,488 @@
         <v>200</v>
       </c>
       <c r="N44" s="3">
+        <v>200</v>
+      </c>
+      <c r="O44" s="3">
+        <v>200</v>
+      </c>
+      <c r="P44" s="3">
         <v>100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>2200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>2000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>1000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F45" s="3">
         <v>2400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>76100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>4600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>1700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>1500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>1300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>46300</v>
+      </c>
+      <c r="F46" s="3">
         <v>31900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>25500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>24000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>25800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>36300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>47800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>54700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>50100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>95000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>104300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>112900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>78300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>20800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>27100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>23900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>30300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>24700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>13700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>8600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>7300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>5700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>6100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>7400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>4200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>100</v>
+      </c>
+      <c r="F47" s="3">
         <v>1700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>400</v>
-      </c>
-      <c r="I47" s="3">
-        <v>200</v>
-      </c>
-      <c r="J47" s="3">
-        <v>200</v>
       </c>
       <c r="K47" s="3">
         <v>200</v>
       </c>
       <c r="L47" s="3">
+        <v>200</v>
+      </c>
+      <c r="M47" s="3">
+        <v>200</v>
+      </c>
+      <c r="N47" s="3">
         <v>3300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>3200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>3200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>2100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>2100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>2000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>1000</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
         <v>1100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>1700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>1300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>300</v>
-      </c>
-      <c r="Z47" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA47" s="3">
-        <v>0</v>
       </c>
       <c r="AB47" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>25100</v>
+      </c>
+      <c r="F48" s="3">
         <v>17600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>15100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>12000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>11300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>6800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>5400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>27500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>27300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>24300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>27100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>11900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>11100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>7500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>5600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>5100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>5000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>4800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>4600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>4600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>17900</v>
+      </c>
+      <c r="F49" s="3">
         <v>18500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>19400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>19900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>20200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>20500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>21000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>21300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>21800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>7800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>7700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>7700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>8200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>28700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>30500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>30800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>31900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>33200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>24600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>26100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>25700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>26200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>25000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>24200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>24600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3807,8 +4034,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3887,25 +4120,31 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F52" s="3">
         <v>1000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1200</v>
       </c>
       <c r="I52" s="3">
         <v>1200</v>
@@ -3914,7 +4153,7 @@
         <v>1200</v>
       </c>
       <c r="K52" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="L52" s="3">
         <v>1200</v>
@@ -3923,40 +4162,40 @@
         <v>1100</v>
       </c>
       <c r="N52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>400</v>
-      </c>
-      <c r="T52" s="3">
-        <v>400</v>
-      </c>
-      <c r="U52" s="3">
-        <v>100</v>
       </c>
       <c r="V52" s="3">
         <v>400</v>
       </c>
       <c r="W52" s="3">
+        <v>100</v>
+      </c>
+      <c r="X52" s="3">
         <v>400</v>
       </c>
-      <c r="X52" s="3">
-        <v>100</v>
-      </c>
       <c r="Y52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Z52" s="3">
         <v>100</v>
@@ -3967,8 +4206,14 @@
       <c r="AB52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4047,88 +4292,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>90900</v>
+      </c>
+      <c r="F54" s="3">
         <v>70700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>62800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>58500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>59800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>65200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>75600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>82100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>77700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>110800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>119200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>127200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>92500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>79600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>84600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>84800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>75400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>69300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>47000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>42400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>39900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>37400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>36300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>36300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>33500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4157,8 +4414,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4187,488 +4446,526 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F57" s="3">
         <v>4500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>5200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>6900</v>
       </c>
       <c r="G57" s="3">
         <v>5200</v>
       </c>
       <c r="H57" s="3">
-        <v>3100</v>
+        <v>6900</v>
       </c>
       <c r="I57" s="3">
         <v>5200</v>
       </c>
       <c r="J57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="L57" s="3">
         <v>10300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>8600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>5500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>7700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>6800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>5500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>3800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>3000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>3800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>3900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>3700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>3500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>4100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>4600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F58" s="3">
         <v>22500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>5600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>5900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>4400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>6700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>400</v>
-      </c>
-      <c r="M58" s="3">
-        <v>400</v>
       </c>
       <c r="N58" s="3">
         <v>400</v>
       </c>
       <c r="O58" s="3">
+        <v>400</v>
+      </c>
+      <c r="P58" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>2000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>3200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>3200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>2600</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>5500</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>5500</v>
       </c>
       <c r="AB58" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F59" s="3">
         <v>7100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>6100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>6200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>8400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>17700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>24100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>36100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>15400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>15000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>15000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>12300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>11000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>9700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>10400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>9800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>10700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>10000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>8600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>4500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F60" s="3">
         <v>34200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>16200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>15300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>15400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>13600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>18200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>18900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>16300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>12400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>19800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>25900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>42400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>24400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>23100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>21800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>17100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>15000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>13000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>16200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>16900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>17600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>16100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>18100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>14500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F61" s="3">
         <v>5200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>14000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>7600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>4900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>7300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>4700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>7100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>7300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>10600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>10300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>10900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>12100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>10300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>10300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>3400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>2600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>4500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>4800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>5100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>5000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>4400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>9700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>10100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>14000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>2800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>3900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>3800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>5200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>7400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>4000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4747,8 +5044,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4827,8 +5130,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4907,88 +5216,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>63400</v>
+      </c>
+      <c r="F66" s="3">
         <v>40500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>31000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>23800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>21400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>22100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>24200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>27600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>25100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>24100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>31000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>37700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>87000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>69100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>68400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>64000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>47100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>39700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>21200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>22900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>25700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>26200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>26400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>30600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>21000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5017,8 +5338,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5097,8 +5420,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5177,8 +5506,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5257,8 +5592,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5337,88 +5678,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-125500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-121300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-117200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-115800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-110400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-106400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-101400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-91200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-88500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-88300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-36700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-34300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-13900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-89400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-83200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-78700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-73500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-62400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-57400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-52300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-49700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-44100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-41300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-39400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-38800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-31800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5497,8 +5850,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5577,8 +5936,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5657,88 +6022,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>27600</v>
+      </c>
+      <c r="F76" s="3">
         <v>30200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>31800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>34700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>38500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>43100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>51400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>54500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>52600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>86700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>88200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>89500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>5500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>10500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>16100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>20800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>28400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>29600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>25800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>19500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>14100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>11300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>9900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>5700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>12500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5817,173 +6194,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43434</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43343</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43251</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43159</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43069</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42978</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42886</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42794</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42704</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-5400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-5000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-10200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-51600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-20400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>152000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-6100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-5200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-8300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-5000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-5100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-5600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-6100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-4800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6012,13 +6407,15 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
@@ -6039,22 +6436,22 @@
         <v>500</v>
       </c>
       <c r="K83" s="3">
+        <v>500</v>
+      </c>
+      <c r="L83" s="3">
+        <v>500</v>
+      </c>
+      <c r="M83" s="3">
         <v>400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>500</v>
-      </c>
-      <c r="O83" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>900</v>
       </c>
       <c r="Q83" s="3">
         <v>1000</v>
@@ -6063,37 +6460,43 @@
         <v>900</v>
       </c>
       <c r="S83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T83" s="3">
+        <v>900</v>
+      </c>
+      <c r="U83" s="3">
         <v>800</v>
-      </c>
-      <c r="T83" s="3">
-        <v>600</v>
-      </c>
-      <c r="U83" s="3">
-        <v>600</v>
       </c>
       <c r="V83" s="3">
         <v>600</v>
       </c>
       <c r="W83" s="3">
+        <v>600</v>
+      </c>
+      <c r="X83" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y83" s="3">
         <v>700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6172,8 +6575,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6252,8 +6661,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6332,8 +6747,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6412,8 +6833,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6492,88 +6919,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-5000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-6400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-8400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-11500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-45200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-10000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-9100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-13700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-2700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-3700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-4500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-3200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-5600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-4800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-2100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6602,88 +7041,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-3500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-4500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-6000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-1100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-1800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-2100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6762,8 +7209,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6842,88 +7295,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-3300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-5700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-5100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>1700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>1100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>103000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-6500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-2400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-2000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-2100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-2000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-500</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>-400</v>
       </c>
       <c r="AA94" s="3">
         <v>-500</v>
       </c>
       <c r="AB94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6952,8 +7417,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7032,8 +7499,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7112,8 +7585,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7192,8 +7671,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7272,244 +7757,268 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F100" s="3">
         <v>9200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>10900</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>6400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>10400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>7200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>6600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>4500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>19400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>7600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>3500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>4000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>2000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>3000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>1800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>-100</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-300</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>1100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>100</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
         <v>-100</v>
       </c>
-      <c r="AB101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F102" s="3">
         <v>1700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-4400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-9400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-13500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-13400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-3300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-43700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-8900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-9600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>95600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>12300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>2800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>3000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORGS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORGS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>ORGS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,129 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43434</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43343</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43251</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43159</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43069</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42978</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42886</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42794</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42704</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -791,102 +795,105 @@
         <v>7000</v>
       </c>
       <c r="E8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F8" s="3">
         <v>13600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>7200</v>
       </c>
       <c r="H8" s="3">
         <v>7200</v>
       </c>
       <c r="I8" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J8" s="3">
         <v>6900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2300</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1700</v>
       </c>
       <c r="O8" s="3">
         <v>1700</v>
       </c>
       <c r="P8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2300</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>1900</v>
       </c>
       <c r="AC8" s="3">
         <v>1900</v>
       </c>
       <c r="AD8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AE8" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E9" s="3">
         <v>2700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>500</v>
-      </c>
-      <c r="F9" s="3">
-        <v>400</v>
       </c>
       <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>35</v>
+      <c r="H9" s="3">
+        <v>400</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>35</v>
@@ -894,11 +901,11 @@
       <c r="J9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="3">
         <v>400</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>35</v>
@@ -906,73 +913,76 @@
       <c r="N9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O9" s="3">
-        <v>200</v>
+      <c r="O9" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="P9" s="3">
         <v>200</v>
       </c>
       <c r="Q9" s="3">
+        <v>200</v>
+      </c>
+      <c r="R9" s="3">
         <v>2600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1600</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>1900</v>
       </c>
       <c r="Z9" s="3">
         <v>1900</v>
       </c>
       <c r="AA9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AB9" s="3">
         <v>2300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E10" s="3">
         <v>4300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>13100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6800</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>35</v>
@@ -980,11 +990,11 @@
       <c r="J10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="3">
         <v>10100</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>35</v>
@@ -992,56 +1002,59 @@
       <c r="N10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="3">
         <v>1500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-1500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-5200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-4800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-4200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>700</v>
       </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
       <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>-500</v>
       </c>
-      <c r="AD10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1072,94 +1085,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E12" s="3">
         <v>3400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>10600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>10000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>50100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>24800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>5800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>3900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1700</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1600</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>500</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1244,34 +1261,37 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>35</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1900</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>35</v>
@@ -1300,11 +1320,11 @@
       <c r="T14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V14" s="3">
         <v>700</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>35</v>
@@ -1321,8 +1341,8 @@
       <c r="AA14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
+      <c r="AB14" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AC14" s="3">
         <v>0</v>
@@ -1330,16 +1350,19 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>400</v>
+      </c>
+      <c r="E15" s="3">
         <v>300</v>
-      </c>
-      <c r="E15" s="3">
-        <v>200</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
@@ -1348,13 +1371,13 @@
         <v>200</v>
       </c>
       <c r="H15" s="3">
+        <v>200</v>
+      </c>
+      <c r="I15" s="3">
         <v>500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>200</v>
-      </c>
-      <c r="J15" s="3">
-        <v>500</v>
       </c>
       <c r="K15" s="3">
         <v>500</v>
@@ -1363,37 +1386,37 @@
         <v>500</v>
       </c>
       <c r="M15" s="3">
+        <v>500</v>
+      </c>
+      <c r="N15" s="3">
         <v>400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>400</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>300</v>
       </c>
       <c r="R15" s="3">
         <v>300</v>
       </c>
       <c r="S15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T15" s="3">
         <v>200</v>
       </c>
       <c r="U15" s="3">
+        <v>200</v>
+      </c>
+      <c r="V15" s="3">
         <v>700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>600</v>
-      </c>
-      <c r="W15" s="3">
-        <v>400</v>
       </c>
       <c r="X15" s="3">
         <v>400</v>
@@ -1416,8 +1439,11 @@
       <c r="AD15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1445,180 +1471,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E17" s="3">
         <v>10500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>55200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>28500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>5400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-4700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-52900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-26800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-8300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-8000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-3400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-3500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-3000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1649,8 +1682,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1658,194 +1692,200 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2100</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="3">
         <v>-1700</v>
       </c>
       <c r="AD20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-9400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-52300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-9100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-26500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-7400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-6400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-4600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-3700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
@@ -1857,144 +1897,150 @@
         <v>300</v>
       </c>
       <c r="N22" s="3">
+        <v>300</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>500</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>200</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>300</v>
       </c>
       <c r="AA22" s="3">
         <v>300</v>
       </c>
       <c r="AB22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AC22" s="3">
         <v>400</v>
       </c>
       <c r="AD22" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-53000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-27100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-8400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-2900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-5600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-5000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -2002,11 +2048,11 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -2017,20 +2063,20 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-1600</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -2038,11 +2084,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -2050,37 +2096,40 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-200</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2165,180 +2214,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-51400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-27100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-8300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-6900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-6100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-4800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-51400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-27100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-8300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-5100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-6100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-4800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2423,8 +2481,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2440,8 +2501,8 @@
       <c r="G29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -2456,37 +2517,37 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>7100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>6700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>159000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-1200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-400</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-300</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>35</v>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="X29" s="3">
         <v>0</v>
@@ -2509,8 +2570,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2595,8 +2659,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2681,8 +2748,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2690,171 +2760,177 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="3">
         <v>1700</v>
       </c>
       <c r="AD32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AE32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-51600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-20400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>152000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-5100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-6100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-4800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2939,185 +3015,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-51600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-20400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>152000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-5100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-6100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-4800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43434</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43343</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43251</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43159</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43069</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42978</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42886</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42794</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42704</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3148,8 +3233,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3180,94 +3266,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>2700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>28400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>41800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>44900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>88800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>97500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>107100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>16100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>16100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>16700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3334,8 +3424,8 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>35</v>
+      <c r="Y42" s="3">
+        <v>0</v>
       </c>
       <c r="Z42" s="3" t="s">
         <v>35</v>
@@ -3343,108 +3433,114 @@
       <c r="AA42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AB42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC42" s="3">
         <v>100</v>
-      </c>
-      <c r="AC42" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="AD42" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E43" s="3">
         <v>40500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>38900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>26400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>21800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>20800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>18500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>19100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>11200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>2100</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
@@ -3465,7 +3561,7 @@
         <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>200</v>
@@ -3480,250 +3576,259 @@
         <v>200</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q44" s="3">
         <v>100</v>
       </c>
       <c r="R44" s="3">
+        <v>100</v>
+      </c>
+      <c r="S44" s="3">
         <v>1900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2000</v>
-      </c>
-      <c r="U44" s="3">
-        <v>1700</v>
       </c>
       <c r="V44" s="3">
         <v>1700</v>
       </c>
       <c r="W44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="X44" s="3">
         <v>1200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>600</v>
-      </c>
-      <c r="AC44" s="3">
-        <v>400</v>
       </c>
       <c r="AD44" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E45" s="3">
         <v>6200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>76100</v>
-      </c>
-      <c r="R45" s="3">
-        <v>1600</v>
       </c>
       <c r="S45" s="3">
         <v>1600</v>
       </c>
       <c r="T45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U45" s="3">
         <v>1400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>800</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E46" s="3">
         <v>49500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>46300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>31900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>25500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>24000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>25800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>36300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>47800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>54700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>50100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>95000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>104300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>112900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>78300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>20800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>27100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>23900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>30300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>24700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>13700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>6100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>7400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>4200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>100</v>
+        <v>31600</v>
       </c>
       <c r="E47" s="3">
         <v>100</v>
       </c>
       <c r="F47" s="3">
+        <v>100</v>
+      </c>
+      <c r="G47" s="3">
         <v>1700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>400</v>
-      </c>
-      <c r="K47" s="3">
-        <v>200</v>
       </c>
       <c r="L47" s="3">
         <v>200</v>
@@ -3732,230 +3837,239 @@
         <v>200</v>
       </c>
       <c r="N47" s="3">
+        <v>200</v>
+      </c>
+      <c r="O47" s="3">
         <v>3300</v>
-      </c>
-      <c r="O47" s="3">
-        <v>3200</v>
       </c>
       <c r="P47" s="3">
         <v>3200</v>
       </c>
       <c r="Q47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R47" s="3">
         <v>2600</v>
-      </c>
-      <c r="R47" s="3">
-        <v>2100</v>
       </c>
       <c r="S47" s="3">
         <v>2100</v>
       </c>
       <c r="T47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U47" s="3">
         <v>2000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1000</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
-      </c>
       <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
         <v>1100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>300</v>
       </c>
-      <c r="AB47" s="3" t="s">
+      <c r="AC47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AC47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="3" t="s">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E48" s="3">
         <v>24700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>25100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>17600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>27500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>24300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>27100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>11900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>11100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4800</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>4600</v>
       </c>
       <c r="AC48" s="3">
         <v>4600</v>
       </c>
       <c r="AD48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="AE48" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E49" s="3">
         <v>17500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>18500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>19400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>19900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>20200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>20500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>21000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>21300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>21800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7800</v>
-      </c>
-      <c r="O49" s="3">
-        <v>7700</v>
       </c>
       <c r="P49" s="3">
         <v>7700</v>
       </c>
       <c r="Q49" s="3">
+        <v>7700</v>
+      </c>
+      <c r="R49" s="3">
         <v>8200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>28700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>30500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>30800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>31900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>33200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>24600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>26100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>25700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>26200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>25000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>24200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>24600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4040,8 +4154,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4126,28 +4243,31 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="E52" s="3">
         <v>1500</v>
       </c>
       <c r="F52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G52" s="3">
         <v>1000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1100</v>
       </c>
       <c r="H52" s="3">
         <v>1100</v>
       </c>
       <c r="I52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J52" s="3">
         <v>1200</v>
@@ -4159,46 +4279,46 @@
         <v>1200</v>
       </c>
       <c r="M52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N52" s="3">
         <v>1100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>300</v>
-      </c>
-      <c r="R52" s="3">
-        <v>700</v>
       </c>
       <c r="S52" s="3">
         <v>700</v>
       </c>
       <c r="T52" s="3">
+        <v>700</v>
+      </c>
+      <c r="U52" s="3">
         <v>800</v>
-      </c>
-      <c r="U52" s="3">
-        <v>400</v>
       </c>
       <c r="V52" s="3">
         <v>400</v>
       </c>
       <c r="W52" s="3">
+        <v>400</v>
+      </c>
+      <c r="X52" s="3">
         <v>100</v>
-      </c>
-      <c r="X52" s="3">
-        <v>400</v>
       </c>
       <c r="Y52" s="3">
         <v>400</v>
       </c>
       <c r="Z52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AA52" s="3">
         <v>100</v>
@@ -4212,8 +4332,11 @@
       <c r="AD52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4298,94 +4421,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E54" s="3">
         <v>93300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>90900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>70700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>62800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>58500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>59800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>65200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>75600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>82100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>77700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>110800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>119200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>127200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>92500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>79600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>84600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>84800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>75400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>69300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>47000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>42400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>39900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>37400</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>36300</v>
       </c>
       <c r="AB54" s="3">
         <v>36300</v>
       </c>
       <c r="AC54" s="3">
+        <v>36300</v>
+      </c>
+      <c r="AD54" s="3">
         <v>33500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4416,8 +4545,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4448,94 +4578,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="E57" s="3">
         <v>4400</v>
       </c>
       <c r="F57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>4600</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4543,34 +4677,34 @@
         <v>2400</v>
       </c>
       <c r="E58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F58" s="3">
         <v>4600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>22500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>400</v>
       </c>
       <c r="O58" s="3">
         <v>400</v>
@@ -4579,40 +4713,40 @@
         <v>400</v>
       </c>
       <c r="Q58" s="3">
+        <v>400</v>
+      </c>
+      <c r="R58" s="3">
         <v>800</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1300</v>
       </c>
       <c r="S58" s="3">
         <v>1300</v>
       </c>
       <c r="T58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U58" s="3">
         <v>1200</v>
-      </c>
-      <c r="U58" s="3">
-        <v>1000</v>
       </c>
       <c r="V58" s="3">
         <v>1000</v>
       </c>
       <c r="W58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X58" s="3">
         <v>900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2000</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>3200</v>
       </c>
       <c r="Z58" s="3">
         <v>3200</v>
       </c>
       <c r="AA58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="AB58" s="3">
         <v>2600</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>5500</v>
       </c>
       <c r="AC58" s="3">
         <v>5500</v>
@@ -4620,352 +4754,367 @@
       <c r="AD58" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E59" s="3">
         <v>7200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>24100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>36100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>15400</v>
-      </c>
-      <c r="S59" s="3">
-        <v>15000</v>
       </c>
       <c r="T59" s="3">
         <v>15000</v>
       </c>
       <c r="U59" s="3">
+        <v>15000</v>
+      </c>
+      <c r="V59" s="3">
         <v>12300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>9700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>10400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>9800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>10700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>10000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>8600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>4500</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E60" s="3">
         <v>13900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>34200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>25900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>42400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>24400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>23100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>21800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>17100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>15000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>13000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>16200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>16900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>17600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>16100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>18100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>14500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E61" s="3">
         <v>17400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>14000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>12100</v>
-      </c>
-      <c r="R61" s="3">
-        <v>10300</v>
       </c>
       <c r="S61" s="3">
         <v>10300</v>
       </c>
       <c r="T61" s="3">
+        <v>10300</v>
+      </c>
+      <c r="U61" s="3">
         <v>3400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>5000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>4400</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
         <v>2700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>5200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>7400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>4000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5050,8 +5199,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5136,8 +5288,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5222,94 +5377,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E66" s="3">
         <v>65600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>63400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>40500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>31000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>24200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>27600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>25100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>24100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>31000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>37700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>87000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>69100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>68400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>64000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>47100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>39700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>21200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>22900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>25700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>26200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>26400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>30600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>21000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5340,8 +5501,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5426,8 +5588,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5512,8 +5677,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5598,8 +5766,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5684,94 +5855,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-129600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-125500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-121300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-117200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-115800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-110400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-106400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-101400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-91200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-88500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-88300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-36700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-34300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-89400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-83200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-78700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-73500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-62400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-57400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-52300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-49700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-44100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-41300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-39400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-38800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-31800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5856,8 +6033,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5942,8 +6122,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6028,94 +6211,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E76" s="3">
         <v>27700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>27600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>30200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>31800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>34700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>38500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>43100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>51400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>54500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>52600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>86700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>88200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>89500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>16100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>28400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>29600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>25800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>19500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>14100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>11300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>9900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>5700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>12500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6200,185 +6389,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43434</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43343</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43251</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43159</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43069</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42978</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42886</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42794</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42704</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-51600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-20400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>152000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-5100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-6100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-4800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6409,8 +6607,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6418,7 +6617,7 @@
         <v>600</v>
       </c>
       <c r="E83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F83" s="3">
         <v>500</v>
@@ -6442,34 +6641,34 @@
         <v>500</v>
       </c>
       <c r="M83" s="3">
+        <v>500</v>
+      </c>
+      <c r="N83" s="3">
         <v>400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>800</v>
-      </c>
-      <c r="V83" s="3">
-        <v>600</v>
       </c>
       <c r="W83" s="3">
         <v>600</v>
@@ -6478,25 +6677,28 @@
         <v>600</v>
       </c>
       <c r="Y83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Z83" s="3">
         <v>700</v>
       </c>
       <c r="AA83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AB83" s="3">
         <v>600</v>
       </c>
       <c r="AC83" s="3">
+        <v>600</v>
+      </c>
+      <c r="AD83" s="3">
         <v>900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6581,8 +6783,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6667,8 +6872,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6753,8 +6961,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6839,8 +7050,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6925,94 +7139,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-45200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-10000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-5600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-4800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7043,94 +7263,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-300</v>
       </c>
       <c r="O91" s="3">
         <v>-300</v>
       </c>
       <c r="P91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>-200</v>
       </c>
       <c r="AA91" s="3">
         <v>-200</v>
       </c>
       <c r="AB91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7215,8 +7439,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7301,94 +7528,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>103000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>-500</v>
       </c>
       <c r="AA94" s="3">
         <v>-500</v>
       </c>
       <c r="AB94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-500</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7419,8 +7652,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7505,8 +7739,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7591,8 +7828,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7677,8 +7917,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7763,94 +8006,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E100" s="3">
         <v>5900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>19500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>9200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>10900</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>6400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>10400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>7200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>6600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>19400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>7600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>3500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>4000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>3000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>1800</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7858,167 +8107,173 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>-100</v>
       </c>
       <c r="K101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-300</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>100</v>
       </c>
-      <c r="AB101" s="3">
-        <v>0</v>
-      </c>
       <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
         <v>-100</v>
       </c>
-      <c r="AD101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-13500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-43700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>95600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>12300</v>
-      </c>
-      <c r="W102" s="3">
-        <v>700</v>
       </c>
       <c r="X102" s="3">
         <v>700</v>
       </c>
       <c r="Y102" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z102" s="3">
         <v>2800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-3200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>3000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORGS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORGS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>ORGS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,238 +665,245 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43434</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43343</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43251</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43159</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43069</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42978</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42886</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42794</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42704</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7000</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>7000</v>
       </c>
       <c r="F8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G8" s="3">
         <v>13600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>7200</v>
       </c>
       <c r="I8" s="3">
         <v>7200</v>
       </c>
       <c r="J8" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K8" s="3">
         <v>6900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2300</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1700</v>
       </c>
       <c r="P8" s="3">
         <v>1700</v>
       </c>
       <c r="Q8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R8" s="3">
         <v>1900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2300</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>1900</v>
       </c>
       <c r="AD8" s="3">
         <v>1900</v>
       </c>
       <c r="AE8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AF8" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
         <v>3200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>500</v>
-      </c>
-      <c r="G9" s="3">
-        <v>400</v>
       </c>
       <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>35</v>
+      <c r="I9" s="3">
+        <v>400</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>35</v>
@@ -904,11 +911,11 @@
       <c r="K9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="3">
         <v>400</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>35</v>
@@ -916,76 +923,79 @@
       <c r="O9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="3">
-        <v>200</v>
+      <c r="P9" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="Q9" s="3">
         <v>200</v>
       </c>
       <c r="R9" s="3">
+        <v>200</v>
+      </c>
+      <c r="S9" s="3">
         <v>2600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1600</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>1900</v>
       </c>
       <c r="AA9" s="3">
         <v>1900</v>
       </c>
       <c r="AB9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AC9" s="3">
         <v>2300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3800</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>2400</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>3800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>13100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6800</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>35</v>
@@ -993,11 +1003,11 @@
       <c r="K10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="3">
         <v>10100</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>35</v>
@@ -1005,56 +1015,59 @@
       <c r="O10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-1500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-5200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-4800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-4200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>700</v>
       </c>
-      <c r="AB10" s="3">
-        <v>0</v>
-      </c>
       <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3">
         <v>-1900</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>-500</v>
       </c>
-      <c r="AE10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1086,97 +1099,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
         <v>3600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>10600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>50100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>24800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>5800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>3900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>500</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1700</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1600</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>500</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1264,37 +1281,40 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>35</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1900</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>35</v>
@@ -1323,11 +1343,11 @@
       <c r="U14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W14" s="3">
         <v>700</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>35</v>
@@ -1344,8 +1364,8 @@
       <c r="AB14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
+      <c r="AC14" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AD14" s="3">
         <v>0</v>
@@ -1353,19 +1373,22 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
         <v>400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>300</v>
-      </c>
-      <c r="F15" s="3">
-        <v>200</v>
       </c>
       <c r="G15" s="3">
         <v>200</v>
@@ -1374,13 +1397,13 @@
         <v>200</v>
       </c>
       <c r="I15" s="3">
+        <v>200</v>
+      </c>
+      <c r="J15" s="3">
         <v>500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>200</v>
-      </c>
-      <c r="K15" s="3">
-        <v>500</v>
       </c>
       <c r="L15" s="3">
         <v>500</v>
@@ -1389,37 +1412,37 @@
         <v>500</v>
       </c>
       <c r="N15" s="3">
+        <v>500</v>
+      </c>
+      <c r="O15" s="3">
         <v>400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>400</v>
-      </c>
-      <c r="R15" s="3">
-        <v>300</v>
       </c>
       <c r="S15" s="3">
         <v>300</v>
       </c>
       <c r="T15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U15" s="3">
         <v>200</v>
       </c>
       <c r="V15" s="3">
+        <v>200</v>
+      </c>
+      <c r="W15" s="3">
         <v>700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>600</v>
-      </c>
-      <c r="X15" s="3">
-        <v>400</v>
       </c>
       <c r="Y15" s="3">
         <v>400</v>
@@ -1442,8 +1465,11 @@
       <c r="AE15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1472,186 +1498,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E17" s="3">
         <v>9900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>55200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>28500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>13800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>6000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>5400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>4900</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-4700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-52900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-26800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-8300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-8000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-3400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-3500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-3000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1683,186 +1716,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2100</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
       <c r="AC20" s="3">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="3">
         <v>-1700</v>
       </c>
       <c r="AE20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="AF20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-52300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-9100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-26500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-6100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-7400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-6400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-4600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-3700</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1870,25 +1910,25 @@
         <v>600</v>
       </c>
       <c r="E22" s="3">
+        <v>600</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
@@ -1900,162 +1940,168 @@
         <v>300</v>
       </c>
       <c r="O22" s="3">
+        <v>300</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>500</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>200</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>300</v>
       </c>
       <c r="AB22" s="3">
         <v>300</v>
       </c>
       <c r="AC22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AD22" s="3">
         <v>400</v>
       </c>
       <c r="AE22" s="3">
+        <v>400</v>
+      </c>
+      <c r="AF22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-53000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-27100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-8400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-7200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-5900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-2900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-5600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-5000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -2066,20 +2112,20 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-1600</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -2087,11 +2133,11 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -2099,37 +2145,40 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-200</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2217,186 +2266,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-51400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-27100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-8300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-6900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-4300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-5500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-6100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-4800</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-51400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-27100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-8300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-5000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-5100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-6100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-4800</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2484,8 +2542,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2504,8 +2565,8 @@
       <c r="H29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2520,37 +2581,37 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>7100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>6700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>159000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-1200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-300</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>35</v>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
+      <c r="X29" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="Y29" s="3">
         <v>0</v>
@@ -2573,8 +2634,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2662,8 +2726,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2751,186 +2818,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
       <c r="AC32" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="3">
         <v>1700</v>
       </c>
       <c r="AE32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AF32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-51600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-20400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>152000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-8300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-5000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-5100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-6100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-4800</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3018,191 +3094,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-51600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-20400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>152000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-8300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-5000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-5100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-6100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-4800</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43434</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43343</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43251</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43159</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43069</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42978</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42886</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42794</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42704</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3234,8 +3319,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3267,97 +3353,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>28400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>41800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>44900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>88800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>97500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>107100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>16100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>14400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>16100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>16700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>900</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3427,8 +3517,8 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>35</v>
+      <c r="Z42" s="3">
+        <v>0</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>35</v>
@@ -3436,106 +3526,112 @@
       <c r="AB42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AC42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD42" s="3">
         <v>100</v>
-      </c>
-      <c r="AD42" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="AE42" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E43" s="3">
         <v>3700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>40500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>38900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>26400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>21800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>20800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>18500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>11200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1500</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>2100</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3543,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
@@ -3564,7 +3660,7 @@
         <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
         <v>200</v>
@@ -3579,259 +3675,268 @@
         <v>200</v>
       </c>
       <c r="Q44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R44" s="3">
         <v>100</v>
       </c>
       <c r="S44" s="3">
+        <v>100</v>
+      </c>
+      <c r="T44" s="3">
         <v>1900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2000</v>
-      </c>
-      <c r="V44" s="3">
-        <v>1700</v>
       </c>
       <c r="W44" s="3">
         <v>1700</v>
       </c>
       <c r="X44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Y44" s="3">
         <v>1200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>600</v>
-      </c>
-      <c r="AD44" s="3">
-        <v>400</v>
       </c>
       <c r="AE44" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E45" s="3">
         <v>5300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>76100</v>
-      </c>
-      <c r="S45" s="3">
-        <v>1600</v>
       </c>
       <c r="T45" s="3">
         <v>1600</v>
       </c>
       <c r="U45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V45" s="3">
         <v>1400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>800</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E46" s="3">
         <v>9300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>49500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>46300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>31900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>25500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>24000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>25800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>36300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>47800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>54700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>50100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>95000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>104300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>112900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>78300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>20800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>27100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>23900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>30300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>24700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>13700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>7300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>6100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>7400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>4200</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E47" s="3">
         <v>31600</v>
-      </c>
-      <c r="E47" s="3">
-        <v>100</v>
       </c>
       <c r="F47" s="3">
         <v>100</v>
       </c>
       <c r="G47" s="3">
+        <v>100</v>
+      </c>
+      <c r="H47" s="3">
         <v>1700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>400</v>
-      </c>
-      <c r="L47" s="3">
-        <v>200</v>
       </c>
       <c r="M47" s="3">
         <v>200</v>
@@ -3840,236 +3945,245 @@
         <v>200</v>
       </c>
       <c r="O47" s="3">
+        <v>200</v>
+      </c>
+      <c r="P47" s="3">
         <v>3300</v>
-      </c>
-      <c r="P47" s="3">
-        <v>3200</v>
       </c>
       <c r="Q47" s="3">
         <v>3200</v>
       </c>
       <c r="R47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="S47" s="3">
         <v>2600</v>
-      </c>
-      <c r="S47" s="3">
-        <v>2100</v>
       </c>
       <c r="T47" s="3">
         <v>2100</v>
       </c>
       <c r="U47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="V47" s="3">
         <v>2000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1000</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
-      </c>
       <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
         <v>1100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>300</v>
       </c>
-      <c r="AC47" s="3" t="s">
+      <c r="AD47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AD47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="3" t="s">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>24700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>25100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>17600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>27300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>24300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>27100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>11900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>11100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>7500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>5000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4800</v>
-      </c>
-      <c r="AC48" s="3">
-        <v>4600</v>
       </c>
       <c r="AD48" s="3">
         <v>4600</v>
       </c>
       <c r="AE48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="AF48" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E49" s="3">
         <v>11400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>18500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>19400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>19900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>20200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>20500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>21000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>21300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>21800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7800</v>
-      </c>
-      <c r="P49" s="3">
-        <v>7700</v>
       </c>
       <c r="Q49" s="3">
         <v>7700</v>
       </c>
       <c r="R49" s="3">
+        <v>7700</v>
+      </c>
+      <c r="S49" s="3">
         <v>8200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>28700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>30500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>30800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>31900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>33200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>24600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>26100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>25700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>26200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>25000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>24200</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>24600</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4157,8 +4271,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4246,8 +4363,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4255,22 +4375,22 @@
         <v>800</v>
       </c>
       <c r="E52" s="3">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F52" s="3">
         <v>1500</v>
       </c>
       <c r="G52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H52" s="3">
         <v>1000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1100</v>
       </c>
       <c r="I52" s="3">
         <v>1100</v>
       </c>
       <c r="J52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K52" s="3">
         <v>1200</v>
@@ -4282,46 +4402,46 @@
         <v>1200</v>
       </c>
       <c r="N52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O52" s="3">
         <v>1100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>300</v>
-      </c>
-      <c r="S52" s="3">
-        <v>700</v>
       </c>
       <c r="T52" s="3">
         <v>700</v>
       </c>
       <c r="U52" s="3">
+        <v>700</v>
+      </c>
+      <c r="V52" s="3">
         <v>800</v>
-      </c>
-      <c r="V52" s="3">
-        <v>400</v>
       </c>
       <c r="W52" s="3">
         <v>400</v>
       </c>
       <c r="X52" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y52" s="3">
         <v>100</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>400</v>
       </c>
       <c r="Z52" s="3">
         <v>400</v>
       </c>
       <c r="AA52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AB52" s="3">
         <v>100</v>
@@ -4335,8 +4455,11 @@
       <c r="AE52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4424,97 +4547,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E54" s="3">
         <v>54800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>93300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>90900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>70700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>62800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>58500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>59800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>65200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>75600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>82100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>77700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>110800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>119200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>127200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>92500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>79600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>84600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>84800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>75400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>69300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>47000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>42400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>39900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>37400</v>
-      </c>
-      <c r="AB54" s="3">
-        <v>36300</v>
       </c>
       <c r="AC54" s="3">
         <v>36300</v>
       </c>
       <c r="AD54" s="3">
+        <v>36300</v>
+      </c>
+      <c r="AE54" s="3">
         <v>33500</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4546,8 +4675,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4579,135 +4709,139 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>4400</v>
       </c>
       <c r="F57" s="3">
         <v>4400</v>
       </c>
       <c r="G57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H57" s="3">
         <v>4500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>4100</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>4600</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="E58" s="3">
         <v>2400</v>
       </c>
       <c r="F58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G58" s="3">
         <v>4600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>22500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>400</v>
       </c>
       <c r="P58" s="3">
         <v>400</v>
@@ -4716,40 +4850,40 @@
         <v>400</v>
       </c>
       <c r="R58" s="3">
+        <v>400</v>
+      </c>
+      <c r="S58" s="3">
         <v>800</v>
-      </c>
-      <c r="S58" s="3">
-        <v>1300</v>
       </c>
       <c r="T58" s="3">
         <v>1300</v>
       </c>
       <c r="U58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V58" s="3">
         <v>1200</v>
-      </c>
-      <c r="V58" s="3">
-        <v>1000</v>
       </c>
       <c r="W58" s="3">
         <v>1000</v>
       </c>
       <c r="X58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y58" s="3">
         <v>900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2000</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>3200</v>
       </c>
       <c r="AA58" s="3">
         <v>3200</v>
       </c>
       <c r="AB58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="AC58" s="3">
         <v>2600</v>
-      </c>
-      <c r="AC58" s="3">
-        <v>5500</v>
       </c>
       <c r="AD58" s="3">
         <v>5500</v>
@@ -4757,275 +4891,287 @@
       <c r="AE58" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E59" s="3">
         <v>6400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>24100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>36100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>15400</v>
-      </c>
-      <c r="T59" s="3">
-        <v>15000</v>
       </c>
       <c r="U59" s="3">
         <v>15000</v>
       </c>
       <c r="V59" s="3">
+        <v>15000</v>
+      </c>
+      <c r="W59" s="3">
         <v>12300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>11000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>9700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>10400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>9800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>10700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>10000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>8600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>4500</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E60" s="3">
         <v>12700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>34200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>25900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>42400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>24400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>23100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>21800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>17100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>15000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>13000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>16200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>16900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>17600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>16100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>18100</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>14500</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E61" s="3">
         <v>17800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>17400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>13400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>14000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>12100</v>
-      </c>
-      <c r="S61" s="3">
-        <v>10300</v>
       </c>
       <c r="T61" s="3">
         <v>10300</v>
       </c>
       <c r="U61" s="3">
+        <v>10300</v>
+      </c>
+      <c r="V61" s="3">
         <v>3400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>5100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>5000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>4400</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5033,88 +5179,91 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
+        <v>200</v>
+      </c>
+      <c r="F62" s="3">
         <v>2700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>10100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>14000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>3800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>5200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>7400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>4000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5202,8 +5351,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5291,8 +5443,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5380,97 +5535,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E66" s="3">
         <v>30800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>65600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>63400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>40500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>31000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>21400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>24200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>27600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>25100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>24100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>31000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>37700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>87000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>69100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>68400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>64000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>47100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>39700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>21200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>22900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>25700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>26200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>26400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>30600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>21000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5502,8 +5663,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5591,8 +5753,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5680,8 +5845,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5769,8 +5937,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5858,97 +6029,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-142200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-129600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-125500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-121300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-117200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-115800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-110400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-106400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-101400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-91200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-88500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-88300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-36700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-34300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-89400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-83200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-78700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-73500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-62400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-57400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-52300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-49700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-44100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-41300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-39400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-38800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-31800</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-27000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6036,8 +6213,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6125,8 +6305,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6214,97 +6397,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E76" s="3">
         <v>24000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>27700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>27600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>30200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>31800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>34700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>38500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>43100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>51400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>54500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>52600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>86700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>88200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>89500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>16100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>28400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>29600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>25800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>19500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>14100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>11300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>9900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>5700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>12500</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6392,191 +6581,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43434</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43343</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43251</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43159</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43069</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42978</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42886</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42794</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42704</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-51600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-20400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>152000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-8300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-5000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-5100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-6100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-4800</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6608,19 +6806,20 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>600</v>
       </c>
       <c r="F83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G83" s="3">
         <v>500</v>
@@ -6644,34 +6843,34 @@
         <v>500</v>
       </c>
       <c r="N83" s="3">
+        <v>500</v>
+      </c>
+      <c r="O83" s="3">
         <v>400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>800</v>
-      </c>
-      <c r="W83" s="3">
-        <v>600</v>
       </c>
       <c r="X83" s="3">
         <v>600</v>
@@ -6680,25 +6879,28 @@
         <v>600</v>
       </c>
       <c r="Z83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AA83" s="3">
         <v>700</v>
       </c>
       <c r="AB83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AC83" s="3">
         <v>600</v>
       </c>
       <c r="AD83" s="3">
+        <v>600</v>
+      </c>
+      <c r="AE83" s="3">
         <v>900</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6786,8 +6988,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6875,8 +7080,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6964,8 +7172,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7053,8 +7264,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7142,97 +7356,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-45200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-10000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-13700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-5600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-4800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-2200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-600</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7264,97 +7484,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-300</v>
       </c>
       <c r="P91" s="3">
         <v>-300</v>
       </c>
       <c r="Q91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-300</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>-200</v>
       </c>
       <c r="AB91" s="3">
         <v>-200</v>
       </c>
       <c r="AC91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-500</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-400</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7442,8 +7666,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7531,97 +7758,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>103000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2000</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>-500</v>
       </c>
       <c r="AB94" s="3">
         <v>-500</v>
       </c>
       <c r="AC94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-500</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7653,8 +7886,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7742,8 +7976,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7831,8 +8068,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7920,8 +8160,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8009,97 +8252,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E100" s="3">
         <v>4900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>19500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>9200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>10900</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>10400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>7200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>6600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>19400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>7600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>3500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>4000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>2000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>3000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>1800</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8110,170 +8359,176 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>-100</v>
       </c>
       <c r="L101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-300</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
       <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>100</v>
       </c>
-      <c r="AC101" s="3">
-        <v>0</v>
-      </c>
       <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
         <v>-100</v>
       </c>
-      <c r="AE101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-13400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-43700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>95600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>12300</v>
-      </c>
-      <c r="X102" s="3">
-        <v>700</v>
       </c>
       <c r="Y102" s="3">
         <v>700</v>
       </c>
       <c r="Z102" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA102" s="3">
         <v>2800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-3200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>3000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>600</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-200</v>
       </c>
     </row>
